--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smish\Desktop\Projects\Clash Mini\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98286B4E-5F91-4AB1-B81D-5E22308858BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C9192-6A82-4ED3-8D36-211996FEF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CE6C17A-E7B2-4E95-A570-BDE80C97BD75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -73,12 +73,18 @@
   <si>
     <t>Count of Units</t>
   </si>
+  <si>
+    <t>Black Bandit</t>
+  </si>
+  <si>
+    <t>Light Bandit</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +92,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -104,13 +134,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,7 +482,7 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +532,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
@@ -529,7 +565,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -562,15 +598,69 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>50</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>0.5</v>
+      </c>
+      <c r="E6">
+        <v>40</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3C9192-6A82-4ED3-8D36-211996FEF653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90495B7E-69CA-43D4-A4F3-C4A7EE0D04A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CE6C17A-E7B2-4E95-A570-BDE80C97BD75}"/>
   </bookViews>
@@ -482,7 +482,7 @@
   <dimension ref="A1:J172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,6 +497,7 @@
     <col min="8" max="8" width="18" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90495B7E-69CA-43D4-A4F3-C4A7EE0D04A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF19C7E-CAA8-4EBD-91E1-EF450CBFEE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CE6C17A-E7B2-4E95-A570-BDE80C97BD75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -78,13 +78,70 @@
   </si>
   <si>
     <t>Light Bandit</t>
+  </si>
+  <si>
+    <t>Samuray</t>
+  </si>
+  <si>
+    <t>Boy</t>
+  </si>
+  <si>
+    <t>King</t>
+  </si>
+  <si>
+    <t>Warrior</t>
+  </si>
+  <si>
+    <t>Gladiator</t>
+  </si>
+  <si>
+    <t>FireWizard</t>
+  </si>
+  <si>
+    <t>SmallHero</t>
+  </si>
+  <si>
+    <t>Enemy</t>
+  </si>
+  <si>
+    <t>BringerOfDeath</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>Goblin</t>
+  </si>
+  <si>
+    <t>Skeleton 1</t>
+  </si>
+  <si>
+    <t>Skeleton 2</t>
+  </si>
+  <si>
+    <t>Skeleton 3</t>
+  </si>
+  <si>
+    <t>Skeleton 4</t>
+  </si>
+  <si>
+    <t>Archer</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>EnemyTree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,8 +163,31 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +204,23 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,19 +228,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -479,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D93BFE1-773F-4D1E-9C49-F9B82E7C405C}">
-  <dimension ref="A1:J172"/>
+  <dimension ref="A1:S172"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="146" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,7 +634,7 @@
     <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -532,7 +666,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -542,7 +677,7 @@
       <c r="C3">
         <v>20</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3">
@@ -554,8 +689,8 @@
       <c r="G3">
         <v>0</v>
       </c>
-      <c r="H3">
-        <v>3</v>
+      <c r="H3" s="3">
+        <v>5</v>
       </c>
       <c r="I3">
         <f>C3*D3</f>
@@ -565,7 +700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -575,8 +710,8 @@
       <c r="C4">
         <v>25</v>
       </c>
-      <c r="D4">
-        <v>0.75</v>
+      <c r="D4" s="4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -587,18 +722,18 @@
       <c r="G4">
         <v>0</v>
       </c>
-      <c r="H4">
-        <v>3</v>
+      <c r="H4" s="3">
+        <v>5</v>
       </c>
       <c r="I4">
         <f t="shared" ref="I4:I67" si="0">C4*D4</f>
-        <v>18.75</v>
+        <v>25</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -606,10 +741,10 @@
         <v>25</v>
       </c>
       <c r="C5">
-        <v>8</v>
-      </c>
-      <c r="D5">
-        <v>0.5</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -620,18 +755,18 @@
       <c r="G5">
         <v>0</v>
       </c>
-      <c r="H5">
-        <v>2</v>
+      <c r="H5" s="3">
+        <v>3</v>
       </c>
       <c r="I5">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -639,10 +774,10 @@
         <v>20</v>
       </c>
       <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -653,1008 +788,1835 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6">
-        <v>3</v>
+      <c r="H6" s="3">
+        <v>2</v>
       </c>
       <c r="I6">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>80</v>
+      </c>
+      <c r="C7">
+        <v>30</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>1000</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>6</v>
+      </c>
       <c r="I7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>10</v>
+      </c>
+      <c r="D8" s="4">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>65</v>
+      </c>
+      <c r="F8">
+        <v>1000</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>4</v>
+      </c>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>10</v>
+      </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <v>15</v>
+      </c>
+      <c r="D10" s="4">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>50</v>
+      </c>
+      <c r="F10">
+        <v>1000</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>7</v>
+      </c>
       <c r="I10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>40</v>
+      </c>
+      <c r="D11" s="4">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>60</v>
+      </c>
+      <c r="F11">
+        <v>1000</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
+        <v>5</v>
+      </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>45</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>35</v>
+      </c>
+      <c r="F12">
+        <v>1000</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3">
+        <v>10</v>
+      </c>
       <c r="I12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>70</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>4</v>
+      </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>80</v>
+      </c>
+      <c r="C17">
+        <v>55</v>
+      </c>
+      <c r="D17" s="4">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>65</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3">
+        <v>10</v>
+      </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18">
+        <v>150</v>
+      </c>
+      <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18" s="4">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>1000</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3">
+        <v>8</v>
+      </c>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>1000</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>2</v>
+      </c>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>35</v>
+      </c>
+      <c r="C20">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>55</v>
+      </c>
+      <c r="F20">
+        <v>1000</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>5</v>
+      </c>
       <c r="I20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>25</v>
+      </c>
+      <c r="C21">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>45</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
+        <v>7</v>
+      </c>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>35</v>
+      </c>
+      <c r="F22">
+        <v>1000</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>9</v>
+      </c>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>35</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>40</v>
+      </c>
+      <c r="F23">
+        <v>1000</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
+        <v>7</v>
+      </c>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>65</v>
+      </c>
+      <c r="C24">
+        <v>50</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>60</v>
+      </c>
+      <c r="F24">
+        <v>1000</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>9</v>
+      </c>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>40</v>
+      </c>
+      <c r="C25">
+        <v>25</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>1000</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>5</v>
+      </c>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>30</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>65</v>
+      </c>
+      <c r="F26">
+        <v>1000</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>4</v>
+      </c>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>250</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>15</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>6</v>
+      </c>
       <c r="I27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3"/>
       <c r="I28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3"/>
       <c r="I29">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3"/>
       <c r="I30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="H32" s="3"/>
       <c r="I32">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="H33" s="3"/>
       <c r="I33">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3"/>
       <c r="I34">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="H35" s="3"/>
       <c r="I35">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="3"/>
       <c r="I36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="4">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3"/>
       <c r="I37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3"/>
       <c r="I38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D39" s="4"/>
+      <c r="H39" s="3"/>
       <c r="I39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D40" s="4"/>
+      <c r="H40" s="3"/>
       <c r="I40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D41" s="4"/>
+      <c r="H41" s="3"/>
       <c r="I41">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D42" s="4"/>
+      <c r="H42" s="3"/>
       <c r="I42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D43" s="4"/>
+      <c r="H43" s="3"/>
       <c r="I43">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D44" s="4"/>
+      <c r="H44" s="3"/>
       <c r="I44">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="4"/>
+      <c r="H45" s="3"/>
       <c r="I45">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="4"/>
+      <c r="H46" s="3"/>
       <c r="I46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D47" s="4"/>
+      <c r="H47" s="3"/>
       <c r="I47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D48" s="4"/>
+      <c r="H48" s="3"/>
       <c r="I48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D49" s="4"/>
+      <c r="H49" s="3"/>
       <c r="I49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D50" s="4"/>
+      <c r="H50" s="3"/>
       <c r="I50">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D51" s="4"/>
+      <c r="H51" s="3"/>
       <c r="I51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D52" s="4"/>
+      <c r="H52" s="3"/>
       <c r="I52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D53" s="4"/>
+      <c r="H53" s="3"/>
       <c r="I53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D54" s="4"/>
+      <c r="H54" s="3"/>
       <c r="I54">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="4"/>
+      <c r="H55" s="3"/>
       <c r="I55">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D56" s="4"/>
+      <c r="H56" s="3"/>
       <c r="I56">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D57" s="4"/>
+      <c r="H57" s="3"/>
       <c r="I57">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D58" s="4"/>
+      <c r="H58" s="3"/>
       <c r="I58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D59" s="4"/>
+      <c r="H59" s="3"/>
       <c r="I59">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D60" s="4"/>
+      <c r="H60" s="3"/>
       <c r="I60">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="4"/>
+      <c r="H61" s="3"/>
       <c r="I61">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D62" s="4"/>
+      <c r="H62" s="3"/>
       <c r="I62">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D63" s="4"/>
+      <c r="H63" s="3"/>
       <c r="I63">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D64" s="4"/>
+      <c r="H64" s="3"/>
       <c r="I64">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D65" s="4"/>
+      <c r="H65" s="3"/>
       <c r="I65">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D66" s="4"/>
+      <c r="H66" s="3"/>
       <c r="I66">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D67" s="4"/>
+      <c r="H67" s="3"/>
       <c r="I67">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D68" s="4"/>
+      <c r="H68" s="3"/>
       <c r="I68">
         <f t="shared" ref="I68:I131" si="1">C68*D68</f>
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D69" s="4"/>
+      <c r="H69" s="3"/>
       <c r="I69">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D70" s="4"/>
+      <c r="H70" s="3"/>
       <c r="I70">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D71" s="4"/>
+      <c r="H71" s="3"/>
       <c r="I71">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D72" s="4"/>
+      <c r="H72" s="3"/>
       <c r="I72">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D73" s="4"/>
+      <c r="H73" s="3"/>
       <c r="I73">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="4"/>
+      <c r="H74" s="3"/>
       <c r="I74">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D75" s="4"/>
+      <c r="H75" s="3"/>
       <c r="I75">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D76" s="4"/>
+      <c r="H76" s="3"/>
       <c r="I76">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D77" s="4"/>
+      <c r="H77" s="3"/>
       <c r="I77">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D78" s="4"/>
+      <c r="H78" s="3"/>
       <c r="I78">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D79" s="4"/>
+      <c r="H79" s="3"/>
       <c r="I79">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D80" s="4"/>
+      <c r="H80" s="3"/>
       <c r="I80">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D81" s="4"/>
+      <c r="H81" s="3"/>
       <c r="I81">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D82" s="4"/>
+      <c r="H82" s="3"/>
       <c r="I82">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D83" s="4"/>
+      <c r="H83" s="3"/>
       <c r="I83">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D84" s="4"/>
+      <c r="H84" s="3"/>
       <c r="I84">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D85" s="4"/>
+      <c r="H85" s="3"/>
       <c r="I85">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D86" s="4"/>
+      <c r="H86" s="3"/>
       <c r="I86">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D87" s="4"/>
+      <c r="H87" s="3"/>
       <c r="I87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D88" s="4"/>
+      <c r="H88" s="3"/>
       <c r="I88">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D89" s="4"/>
+      <c r="H89" s="3"/>
       <c r="I89">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="4"/>
+      <c r="H90" s="3"/>
       <c r="I90">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D91" s="4"/>
+      <c r="H91" s="3"/>
       <c r="I91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D92" s="4"/>
+      <c r="H92" s="3"/>
       <c r="I92">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D93" s="4"/>
+      <c r="H93" s="3"/>
       <c r="I93">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D94" s="4"/>
+      <c r="H94" s="3"/>
       <c r="I94">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D95" s="4"/>
+      <c r="H95" s="3"/>
       <c r="I95">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D96" s="4"/>
+      <c r="H96" s="3"/>
       <c r="I96">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D97" s="4"/>
+      <c r="H97" s="3"/>
       <c r="I97">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D98" s="4"/>
+      <c r="H98" s="3"/>
       <c r="I98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="4"/>
+      <c r="H99" s="3"/>
       <c r="I99">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D100" s="4"/>
+      <c r="H100" s="3"/>
       <c r="I100">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D101" s="4"/>
+      <c r="H101" s="3"/>
       <c r="I101">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D102" s="4"/>
+      <c r="H102" s="3"/>
       <c r="I102">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D103" s="4"/>
+      <c r="H103" s="3"/>
       <c r="I103">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D104" s="4"/>
+      <c r="H104" s="3"/>
       <c r="I104">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D105" s="4"/>
+      <c r="H105" s="3"/>
       <c r="I105">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D106" s="4"/>
+      <c r="H106" s="3"/>
       <c r="I106">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D107" s="4"/>
+      <c r="H107" s="3"/>
       <c r="I107">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D108" s="4"/>
+      <c r="H108" s="3"/>
       <c r="I108">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D109" s="4"/>
+      <c r="H109" s="3"/>
       <c r="I109">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D110" s="4"/>
+      <c r="H110" s="3"/>
       <c r="I110">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D111" s="4"/>
+      <c r="H111" s="3"/>
       <c r="I111">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D112" s="4"/>
+      <c r="H112" s="3"/>
       <c r="I112">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D113" s="4"/>
+      <c r="H113" s="3"/>
       <c r="I113">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D114" s="4"/>
+      <c r="H114" s="3"/>
       <c r="I114">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D115" s="4"/>
+      <c r="H115" s="3"/>
       <c r="I115">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D116" s="4"/>
+      <c r="H116" s="3"/>
       <c r="I116">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D117" s="4"/>
+      <c r="H117" s="3"/>
       <c r="I117">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="4"/>
+      <c r="H118" s="3"/>
       <c r="I118">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D119" s="4"/>
+      <c r="H119" s="3"/>
       <c r="I119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D120" s="4"/>
+      <c r="H120" s="3"/>
       <c r="I120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D121" s="4"/>
+      <c r="H121" s="3"/>
       <c r="I121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D122" s="4"/>
+      <c r="H122" s="3"/>
       <c r="I122">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D123" s="4"/>
+      <c r="H123" s="3"/>
       <c r="I123">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D124" s="4"/>
+      <c r="H124" s="3"/>
       <c r="I124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D125" s="4"/>
+      <c r="H125" s="3"/>
       <c r="I125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D126" s="4"/>
+      <c r="H126" s="3"/>
       <c r="I126">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D127" s="4"/>
+      <c r="H127" s="3"/>
       <c r="I127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="4"/>
+      <c r="H128" s="3"/>
       <c r="I128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D129" s="4"/>
+      <c r="H129" s="3"/>
       <c r="I129">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D130" s="4"/>
+      <c r="H130" s="3"/>
       <c r="I130">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D131" s="4"/>
+      <c r="H131" s="3"/>
       <c r="I131">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="4"/>
+      <c r="H132" s="3"/>
       <c r="I132">
         <f t="shared" ref="I132:I172" si="2">C132*D132</f>
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D133" s="4"/>
+      <c r="H133" s="3"/>
       <c r="I133">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D134" s="4"/>
+      <c r="H134" s="3"/>
       <c r="I134">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D135" s="4"/>
+      <c r="H135" s="3"/>
       <c r="I135">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D136" s="4"/>
+      <c r="H136" s="3"/>
       <c r="I136">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D137" s="4"/>
+      <c r="H137" s="3"/>
       <c r="I137">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D138" s="4"/>
+      <c r="H138" s="3"/>
       <c r="I138">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D139" s="4"/>
+      <c r="H139" s="3"/>
       <c r="I139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D140" s="4"/>
+      <c r="H140" s="3"/>
       <c r="I140">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D141" s="4"/>
+      <c r="H141" s="3"/>
       <c r="I141">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D142" s="4"/>
+      <c r="H142" s="3"/>
       <c r="I142">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D143" s="4"/>
+      <c r="H143" s="3"/>
       <c r="I143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D144" s="4"/>
+      <c r="H144" s="3"/>
       <c r="I144">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D145" s="4"/>
+      <c r="H145" s="3"/>
       <c r="I145">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D146" s="4"/>
+      <c r="H146" s="3"/>
       <c r="I146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D147" s="4"/>
+      <c r="H147" s="3"/>
       <c r="I147">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D148" s="4"/>
+      <c r="H148" s="3"/>
       <c r="I148">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D149" s="4"/>
+      <c r="H149" s="3"/>
       <c r="I149">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D150" s="4"/>
+      <c r="H150" s="3"/>
       <c r="I150">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D151" s="4"/>
+      <c r="H151" s="3"/>
       <c r="I151">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D152" s="4"/>
+      <c r="H152" s="3"/>
       <c r="I152">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D153" s="4"/>
+      <c r="H153" s="3"/>
       <c r="I153">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D154" s="4"/>
+      <c r="H154" s="3"/>
       <c r="I154">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D155" s="4"/>
+      <c r="H155" s="3"/>
       <c r="I155">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D156" s="4"/>
+      <c r="H156" s="3"/>
       <c r="I156">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D157" s="4"/>
+      <c r="H157" s="3"/>
       <c r="I157">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D158" s="4"/>
+      <c r="H158" s="3"/>
       <c r="I158">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D159" s="4"/>
+      <c r="H159" s="3"/>
       <c r="I159">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D160" s="4"/>
+      <c r="H160" s="3"/>
       <c r="I160">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D161" s="4"/>
+      <c r="H161" s="3"/>
       <c r="I161">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D162" s="4"/>
+      <c r="H162" s="3"/>
       <c r="I162">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D163" s="4"/>
+      <c r="H163" s="3"/>
       <c r="I163">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D164" s="4"/>
+      <c r="H164" s="3"/>
       <c r="I164">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D165" s="4"/>
+      <c r="H165" s="3"/>
       <c r="I165">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="I166">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I167">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I168">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I169">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I170">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I171">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="9:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
       <c r="I172">
         <f t="shared" si="2"/>
         <v>0</v>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF19C7E-CAA8-4EBD-91E1-EF450CBFEE5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6B7393-B675-4F21-9D8C-A0DD440D9161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CE6C17A-E7B2-4E95-A570-BDE80C97BD75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>EnemyTree</t>
+  </si>
+  <si>
+    <t>Enemy Strenght</t>
   </si>
 </sst>
 </file>
@@ -613,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D93BFE1-773F-4D1E-9C49-F9B82E7C405C}">
-  <dimension ref="A1:S172"/>
+  <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="146" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -665,6 +668,9 @@
       <c r="J1" t="s">
         <v>11</v>
       </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -693,7 +699,7 @@
         <v>5</v>
       </c>
       <c r="I3">
-        <f>C3*D3</f>
+        <f>C3/D3</f>
         <v>20</v>
       </c>
       <c r="J3">
@@ -726,7 +732,7 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="0">C4*D4</f>
+        <f t="shared" ref="I4:I67" si="0">C4/D4</f>
         <v>25</v>
       </c>
       <c r="J4">
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="D27" s="4">
-        <v>1</v>
+        <v>10000</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1567,1061 +1573,512 @@
     <row r="39" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4"/>
       <c r="H39" s="3"/>
-      <c r="I39">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="40" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
       <c r="H40" s="3"/>
-      <c r="I40">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="41" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4"/>
       <c r="H41" s="3"/>
-      <c r="I41">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="42" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4"/>
       <c r="H42" s="3"/>
-      <c r="I42">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="43" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="4"/>
       <c r="H43" s="3"/>
-      <c r="I43">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="44" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="4"/>
       <c r="H44" s="3"/>
-      <c r="I44">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="45" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="4"/>
       <c r="H45" s="3"/>
-      <c r="I45">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="46" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4"/>
       <c r="H46" s="3"/>
-      <c r="I46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="47" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="4"/>
       <c r="H47" s="3"/>
-      <c r="I47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="48" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4"/>
       <c r="H48" s="3"/>
-      <c r="I48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4"/>
       <c r="H49" s="3"/>
-      <c r="I49">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="4"/>
       <c r="H50" s="3"/>
-      <c r="I50">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D51" s="4"/>
       <c r="H51" s="3"/>
-      <c r="I51">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
       <c r="H52" s="3"/>
-      <c r="I52">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D53" s="4"/>
       <c r="H53" s="3"/>
-      <c r="I53">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="4"/>
       <c r="H54" s="3"/>
-      <c r="I54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D55" s="4"/>
       <c r="H55" s="3"/>
-      <c r="I55">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="4"/>
       <c r="H56" s="3"/>
-      <c r="I56">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="4"/>
       <c r="H57" s="3"/>
-      <c r="I57">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
       <c r="H58" s="3"/>
-      <c r="I58">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
       <c r="H59" s="3"/>
-      <c r="I59">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="H60" s="3"/>
-      <c r="I60">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="H61" s="3"/>
-      <c r="I61">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="H62" s="3"/>
-      <c r="I62">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="H63" s="3"/>
-      <c r="I63">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="H64" s="3"/>
-      <c r="I64">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="4"/>
       <c r="H65" s="3"/>
-      <c r="I65">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="4"/>
       <c r="H66" s="3"/>
-      <c r="I66">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
       <c r="H67" s="3"/>
-      <c r="I67">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="4"/>
       <c r="H68" s="3"/>
-      <c r="I68">
-        <f t="shared" ref="I68:I131" si="1">C68*D68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D69" s="4"/>
       <c r="H69" s="3"/>
-      <c r="I69">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D70" s="4"/>
       <c r="H70" s="3"/>
-      <c r="I70">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="4"/>
       <c r="H71" s="3"/>
-      <c r="I71">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D72" s="4"/>
       <c r="H72" s="3"/>
-      <c r="I72">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="4"/>
       <c r="H73" s="3"/>
-      <c r="I73">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
       <c r="H74" s="3"/>
-      <c r="I74">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
       <c r="H75" s="3"/>
-      <c r="I75">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
       <c r="H76" s="3"/>
-      <c r="I76">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
       <c r="H77" s="3"/>
-      <c r="I77">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
       <c r="H78" s="3"/>
-      <c r="I78">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
       <c r="H79" s="3"/>
-      <c r="I79">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
       <c r="H80" s="3"/>
-      <c r="I80">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D81" s="4"/>
       <c r="H81" s="3"/>
-      <c r="I81">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="4"/>
       <c r="H82" s="3"/>
-      <c r="I82">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D83" s="4"/>
       <c r="H83" s="3"/>
-      <c r="I83">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="4"/>
       <c r="H84" s="3"/>
-      <c r="I84">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="4"/>
       <c r="H85" s="3"/>
-      <c r="I85">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="4"/>
       <c r="H86" s="3"/>
-      <c r="I86">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D87" s="4"/>
       <c r="H87" s="3"/>
-      <c r="I87">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D88" s="4"/>
       <c r="H88" s="3"/>
-      <c r="I88">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="4"/>
       <c r="H89" s="3"/>
-      <c r="I89">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="4"/>
       <c r="H90" s="3"/>
-      <c r="I90">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="4"/>
       <c r="H91" s="3"/>
-      <c r="I91">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="4"/>
       <c r="H92" s="3"/>
-      <c r="I92">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="4"/>
       <c r="H93" s="3"/>
-      <c r="I93">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="4"/>
       <c r="H94" s="3"/>
-      <c r="I94">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="4"/>
       <c r="H95" s="3"/>
-      <c r="I95">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D96" s="4"/>
       <c r="H96" s="3"/>
-      <c r="I96">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="4"/>
       <c r="H97" s="3"/>
-      <c r="I97">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="4"/>
       <c r="H98" s="3"/>
-      <c r="I98">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="4"/>
       <c r="H99" s="3"/>
-      <c r="I99">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="4"/>
       <c r="H100" s="3"/>
-      <c r="I100">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="4"/>
       <c r="H101" s="3"/>
-      <c r="I101">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="4"/>
       <c r="H102" s="3"/>
-      <c r="I102">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="4"/>
       <c r="H103" s="3"/>
-      <c r="I103">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="4"/>
       <c r="H104" s="3"/>
-      <c r="I104">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="4"/>
       <c r="H105" s="3"/>
-      <c r="I105">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="4"/>
       <c r="H106" s="3"/>
-      <c r="I106">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="4"/>
       <c r="H107" s="3"/>
-      <c r="I107">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="4"/>
       <c r="H108" s="3"/>
-      <c r="I108">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D109" s="4"/>
       <c r="H109" s="3"/>
-      <c r="I109">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D110" s="4"/>
       <c r="H110" s="3"/>
-      <c r="I110">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="111" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D111" s="4"/>
       <c r="H111" s="3"/>
-      <c r="I111">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="4"/>
       <c r="H112" s="3"/>
-      <c r="I112">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="4"/>
       <c r="H113" s="3"/>
-      <c r="I113">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D114" s="4"/>
       <c r="H114" s="3"/>
-      <c r="I114">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D115" s="4"/>
       <c r="H115" s="3"/>
-      <c r="I115">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D116" s="4"/>
       <c r="H116" s="3"/>
-      <c r="I116">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D117" s="4"/>
       <c r="H117" s="3"/>
-      <c r="I117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="4"/>
       <c r="H118" s="3"/>
-      <c r="I118">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="4"/>
       <c r="H119" s="3"/>
-      <c r="I119">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D120" s="4"/>
       <c r="H120" s="3"/>
-      <c r="I120">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D121" s="4"/>
       <c r="H121" s="3"/>
-      <c r="I121">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D122" s="4"/>
       <c r="H122" s="3"/>
-      <c r="I122">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D123" s="4"/>
       <c r="H123" s="3"/>
-      <c r="I123">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D124" s="4"/>
       <c r="H124" s="3"/>
-      <c r="I124">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D125" s="4"/>
       <c r="H125" s="3"/>
-      <c r="I125">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D126" s="4"/>
       <c r="H126" s="3"/>
-      <c r="I126">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D127" s="4"/>
       <c r="H127" s="3"/>
-      <c r="I127">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="4"/>
       <c r="H128" s="3"/>
-      <c r="I128">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D129" s="4"/>
       <c r="H129" s="3"/>
-      <c r="I129">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="4"/>
       <c r="H130" s="3"/>
-      <c r="I130">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="4"/>
       <c r="H131" s="3"/>
-      <c r="I131">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="4"/>
       <c r="H132" s="3"/>
-      <c r="I132">
-        <f t="shared" ref="I132:I172" si="2">C132*D132</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="4"/>
       <c r="H133" s="3"/>
-      <c r="I133">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D134" s="4"/>
       <c r="H134" s="3"/>
-      <c r="I134">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D135" s="4"/>
       <c r="H135" s="3"/>
-      <c r="I135">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="4"/>
       <c r="H136" s="3"/>
-      <c r="I136">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="4"/>
       <c r="H137" s="3"/>
-      <c r="I137">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="4"/>
       <c r="H138" s="3"/>
-      <c r="I138">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="4"/>
       <c r="H139" s="3"/>
-      <c r="I139">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D140" s="4"/>
       <c r="H140" s="3"/>
-      <c r="I140">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D141" s="4"/>
       <c r="H141" s="3"/>
-      <c r="I141">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D142" s="4"/>
       <c r="H142" s="3"/>
-      <c r="I142">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D143" s="4"/>
       <c r="H143" s="3"/>
-      <c r="I143">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D144" s="4"/>
       <c r="H144" s="3"/>
-      <c r="I144">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D145" s="4"/>
       <c r="H145" s="3"/>
-      <c r="I145">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D146" s="4"/>
       <c r="H146" s="3"/>
-      <c r="I146">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D147" s="4"/>
       <c r="H147" s="3"/>
-      <c r="I147">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D148" s="4"/>
       <c r="H148" s="3"/>
-      <c r="I148">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D149" s="4"/>
       <c r="H149" s="3"/>
-      <c r="I149">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D150" s="4"/>
       <c r="H150" s="3"/>
-      <c r="I150">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D151" s="4"/>
       <c r="H151" s="3"/>
-      <c r="I151">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D152" s="4"/>
       <c r="H152" s="3"/>
-      <c r="I152">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="4"/>
       <c r="H153" s="3"/>
-      <c r="I153">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D154" s="4"/>
       <c r="H154" s="3"/>
-      <c r="I154">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D155" s="4"/>
       <c r="H155" s="3"/>
-      <c r="I155">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D156" s="4"/>
       <c r="H156" s="3"/>
-      <c r="I156">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D157" s="4"/>
       <c r="H157" s="3"/>
-      <c r="I157">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D158" s="4"/>
       <c r="H158" s="3"/>
-      <c r="I158">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D159" s="4"/>
       <c r="H159" s="3"/>
-      <c r="I159">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="4"/>
       <c r="H160" s="3"/>
-      <c r="I160">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D161" s="4"/>
       <c r="H161" s="3"/>
-      <c r="I161">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D162" s="4"/>
       <c r="H162" s="3"/>
-      <c r="I162">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D163" s="4"/>
       <c r="H163" s="3"/>
-      <c r="I163">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D164" s="4"/>
       <c r="H164" s="3"/>
-      <c r="I164">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D165" s="4"/>
       <c r="H165" s="3"/>
-      <c r="I165">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="4:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I166">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I167">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I168">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I169">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I170">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I171">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="172" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="I172">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="166" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D6B7393-B675-4F21-9D8C-A0DD440D9161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{0CE6C17A-E7B2-4E95-A570-BDE80C97BD75}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -143,8 +137,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,12 +273,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Вычисление" xfId="4" builtinId="22"/>
+    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -342,7 +336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Display"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -394,7 +388,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Aptos Narrow"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -608,36 +602,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D93BFE1-773F-4D1E-9C49-F9B82E7C405C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="18.25" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,8 +666,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" thickBot="1"/>
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -705,8 +699,12 @@
       <c r="J3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <f>(B3/40+I3/20+E3/40)*J3</f>
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -732,14 +730,18 @@
         <v>5</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I67" si="0">C4/D4</f>
+        <f t="shared" ref="I4:I38" si="0">C4/D4</f>
         <v>25</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <f t="shared" ref="K4:K27" si="1">(B4/40+I4/20+E4/40)*J4</f>
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -771,8 +773,12 @@
       <c r="J5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <f t="shared" si="1"/>
+        <v>7.125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -804,8 +810,12 @@
       <c r="J6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -837,8 +847,12 @@
       <c r="J7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <f t="shared" si="1"/>
+        <v>4.375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -868,10 +882,14 @@
         <v>10</v>
       </c>
       <c r="J8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="1"/>
+        <v>8.625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -903,8 +921,12 @@
       <c r="J9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>5.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -936,8 +958,12 @@
       <c r="J10">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K10">
+        <f t="shared" si="1"/>
+        <v>17.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -969,8 +995,12 @@
       <c r="J11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1002,8 +1032,12 @@
       <c r="J12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K12">
+        <f t="shared" si="1"/>
+        <v>5.375</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1035,9 +1069,13 @@
       <c r="J13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K13">
+        <f t="shared" si="1"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1096,8 +1134,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1129,8 +1167,12 @@
       <c r="J17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <f t="shared" si="1"/>
+        <v>6.375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1162,8 +1204,12 @@
       <c r="J18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1195,8 +1241,12 @@
       <c r="J19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <f t="shared" si="1"/>
+        <v>7.875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1228,8 +1278,12 @@
       <c r="J20">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20">
+        <f t="shared" si="1"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1261,8 +1315,12 @@
       <c r="J21">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K21">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1294,8 +1352,12 @@
       <c r="J22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1327,8 +1389,12 @@
       <c r="J23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1360,8 +1426,12 @@
       <c r="J24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <f t="shared" si="1"/>
+        <v>5.625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1393,8 +1463,12 @@
       <c r="J25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1426,8 +1500,12 @@
       <c r="J26">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26">
+        <f t="shared" si="1"/>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1459,8 +1537,12 @@
       <c r="J27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27">
+        <f t="shared" si="1"/>
+        <v>6.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D28" s="4">
         <v>1</v>
       </c>
@@ -1470,7 +1552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1480,7 +1562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D30" s="4">
         <v>1</v>
       </c>
@@ -1490,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D31" s="4">
         <v>1</v>
       </c>
@@ -1500,7 +1582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D32" s="4">
         <v>1</v>
       </c>
@@ -1510,7 +1592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D33" s="4">
         <v>1</v>
       </c>
@@ -1520,7 +1602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D34" s="4">
         <v>1</v>
       </c>
@@ -1530,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -1540,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D36" s="4">
         <v>1</v>
       </c>
@@ -1550,7 +1632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D37" s="4">
         <v>1</v>
       </c>
@@ -1560,7 +1642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D38" s="4">
         <v>1</v>
       </c>
@@ -1570,515 +1652,515 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D39" s="4"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D40" s="4"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D41" s="4"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D42" s="4"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D43" s="4"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D44" s="4"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D45" s="4"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D46" s="4"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D47" s="4"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="4:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D48" s="4"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D49" s="4"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D50" s="4"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D51" s="4"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D52" s="4"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D53" s="4"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D54" s="4"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D55" s="4"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D56" s="4"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D57" s="4"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D58" s="4"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D59" s="4"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D60" s="4"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D61" s="4"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="4"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D63" s="4"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D64" s="4"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D65" s="4"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D66" s="4"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D67" s="4"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D68" s="4"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D69" s="4"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D70" s="4"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D71" s="4"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D72" s="4"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D73" s="4"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D74" s="4"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D75" s="4"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D76" s="4"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D77" s="4"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D78" s="4"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D79" s="4"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D80" s="4"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D81" s="4"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D82" s="4"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D83" s="4"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D84" s="4"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D85" s="4"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D86" s="4"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D87" s="4"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D88" s="4"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D89" s="4"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D90" s="4"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D91" s="4"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D92" s="4"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D93" s="4"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D94" s="4"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D95" s="4"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D96" s="4"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D97" s="4"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D98" s="4"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D99" s="4"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D100" s="4"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D101" s="4"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D102" s="4"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D103" s="4"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D104" s="4"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D105" s="4"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D106" s="4"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D107" s="4"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D108" s="4"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D109" s="4"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D110" s="4"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D111" s="4"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D112" s="4"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D113" s="4"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D114" s="4"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D115" s="4"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D116" s="4"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D117" s="4"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D118" s="4"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D119" s="4"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D120" s="4"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D121" s="4"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D122" s="4"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D123" s="4"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D124" s="4"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D125" s="4"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D126" s="4"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D127" s="4"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D128" s="4"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D129" s="4"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D130" s="4"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D131" s="4"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D132" s="4"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D133" s="4"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D134" s="4"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D135" s="4"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D136" s="4"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D137" s="4"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D138" s="4"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D139" s="4"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D140" s="4"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D141" s="4"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D142" s="4"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D143" s="4"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D144" s="4"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D145" s="4"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D146" s="4"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D147" s="4"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D148" s="4"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D149" s="4"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D150" s="4"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D151" s="4"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D152" s="4"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D153" s="4"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D154" s="4"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D155" s="4"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D156" s="4"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D157" s="4"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D158" s="4"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D159" s="4"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D160" s="4"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D161" s="4"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D162" s="4"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D163" s="4"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D164" s="4"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
       <c r="D165" s="4"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="4:8" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -602,7 +602,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -612,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -700,8 +700,8 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <f>(B3/40+I3/20+E3/40)*J3</f>
-        <v>3.5</v>
+        <f>(B3/60+I3/25+E3/50)*J3</f>
+        <v>2.6333333333333333</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -737,8 +737,8 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K27" si="1">(B4/40+I4/20+E4/40)*J4</f>
-        <v>3.75</v>
+        <f t="shared" ref="K4:K27" si="1">(B4/60+I4/25+E4/50)*J4</f>
+        <v>2.8666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -775,7 +775,7 @@
       </c>
       <c r="K5">
         <f t="shared" si="1"/>
-        <v>7.125</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -812,7 +812,7 @@
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>8.75</v>
+        <v>6.6666666666666679</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -849,7 +849,7 @@
       </c>
       <c r="K7">
         <f t="shared" si="1"/>
-        <v>4.375</v>
+        <v>3.2333333333333334</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -886,7 +886,7 @@
       </c>
       <c r="K8">
         <f t="shared" si="1"/>
-        <v>8.625</v>
+        <v>6.6000000000000005</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -922,8 +922,8 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <f t="shared" si="1"/>
-        <v>5.75</v>
+        <f>(B9/60+I9/25+E9/50)*J9</f>
+        <v>4.2666666666666666</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -960,7 +960,7 @@
       </c>
       <c r="K10">
         <f t="shared" si="1"/>
-        <v>17.25</v>
+        <v>13.100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -997,7 +997,7 @@
       </c>
       <c r="K11">
         <f t="shared" si="1"/>
-        <v>7.75</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -1034,7 +1034,7 @@
       </c>
       <c r="K12">
         <f t="shared" si="1"/>
-        <v>5.375</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="K13">
         <f t="shared" si="1"/>
-        <v>13.5</v>
+        <v>10.399999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
@@ -1169,7 +1169,7 @@
       </c>
       <c r="K17">
         <f t="shared" si="1"/>
-        <v>6.375</v>
+        <v>4.833333333333333</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1206,7 +1206,7 @@
       </c>
       <c r="K18">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1243,7 +1243,7 @@
       </c>
       <c r="K19">
         <f t="shared" si="1"/>
-        <v>7.875</v>
+        <v>6.15</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1280,7 +1280,7 @@
       </c>
       <c r="K20">
         <f t="shared" si="1"/>
-        <v>7.5</v>
+        <v>5.7666666666666666</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="K21">
         <f t="shared" si="1"/>
-        <v>12.5</v>
+        <v>9.5833333333333321</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="1"/>
-        <v>4.75</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="K23">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>6.0666666666666664</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="K24">
         <f t="shared" si="1"/>
-        <v>5.625</v>
+        <v>4.2833333333333332</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="K25">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2.2666666666666666</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="K26">
         <f t="shared" si="1"/>
-        <v>8.75</v>
+        <v>6.6666666666666661</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1539,7 +1539,7 @@
       </c>
       <c r="K27">
         <f t="shared" si="1"/>
-        <v>6.25</v>
+        <v>4.166666666666667</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
@@ -1592,17 +1592,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+      <c r="B33">
+        <f>AVERAGE(B18:B27,B17,B3:B13)</f>
+        <v>61.81818181818182</v>
+      </c>
       <c r="D33" s="4">
         <v>1</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(D33,E17:E26,E3:E13)</f>
+        <v>47.31818181818182</v>
       </c>
       <c r="H33" s="3"/>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+        <f>AVERAGE(I3,I3:I13,I17:I26)</f>
+        <v>27.272727272727273</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D34" s="4">
         <v>1</v>
       </c>
@@ -1612,7 +1620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -1622,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D36" s="4">
         <v>1</v>
       </c>
@@ -1632,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D37" s="4">
         <v>1</v>
       </c>
@@ -1642,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D38" s="4">
         <v>1</v>
       </c>
@@ -1652,43 +1660,43 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D39" s="4"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D40" s="4"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D41" s="4"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D42" s="4"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D43" s="4"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D44" s="4"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D45" s="4"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D46" s="4"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D47" s="4"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="4:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
       <c r="D48" s="4"/>
       <c r="H48" s="3"/>
     </row>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08011A3-418C-48FF-9C9A-190F104344DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -137,8 +143,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,12 +279,12 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Вычисление" xfId="4" builtinId="22"/>
-    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
-    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,36 +608,36 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
     <col min="8" max="8" width="18" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="18.25" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -666,8 +672,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1"/>
-    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -675,7 +681,7 @@
         <v>50</v>
       </c>
       <c r="C3">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -694,17 +700,17 @@
       </c>
       <c r="I3">
         <f>C3/D3</f>
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
         <f>(B3/60+I3/25+E3/50)*J3</f>
-        <v>2.6333333333333333</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+        <v>2.8333333333333335</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -741,7 +747,7 @@
         <v>2.8666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -778,7 +784,7 @@
         <v>5.45</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -815,7 +821,7 @@
         <v>6.6666666666666679</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -852,7 +858,7 @@
         <v>3.2333333333333334</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -889,7 +895,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -926,7 +932,7 @@
         <v>4.2666666666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -963,7 +969,7 @@
         <v>13.100000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1000,7 +1006,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1037,7 +1043,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1074,8 +1080,8 @@
         <v>10.399999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1134,8 +1140,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1172,7 +1178,7 @@
         <v>4.833333333333333</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>23</v>
       </c>
@@ -1209,7 +1215,7 @@
         <v>3.3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>6.15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1289,7 @@
         <v>5.7666666666666666</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1320,7 +1326,7 @@
         <v>9.5833333333333321</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1357,7 +1363,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>6.0666666666666664</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1431,7 +1437,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>2.2666666666666666</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1505,7 +1511,7 @@
         <v>6.6666666666666661</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1542,7 +1548,7 @@
         <v>4.166666666666667</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="4">
         <v>1</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <v>1</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>1</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>1</v>
       </c>
@@ -1592,11 +1598,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
         <v>61.81818181818182</v>
       </c>
+      <c r="C33">
+        <f>AVERAGE(B33,C3,C4,C6,C5,C8,C7,C9:C13,C17:C27)</f>
+        <v>28.122529644268774</v>
+      </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
@@ -1607,10 +1617,10 @@
       <c r="H33" s="3"/>
       <c r="I33">
         <f>AVERAGE(I3,I3:I13,I17:I26)</f>
-        <v>27.272727272727273</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+        <v>27.727272727272727</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>1</v>
       </c>
@@ -1620,7 +1630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -1630,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>1</v>
       </c>
@@ -1640,7 +1650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>1</v>
       </c>
@@ -1650,7 +1660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="4">
         <v>1</v>
       </c>
@@ -1660,515 +1670,515 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="4"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="4"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="4"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="4"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="2:9" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="4"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D51" s="4"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D53" s="4"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="4"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D55" s="4"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="4"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="4"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="4"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="4"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="4"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D69" s="4"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D70" s="4"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="4"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D72" s="4"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="4"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D81" s="4"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="4"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D83" s="4"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="4"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="4"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="4"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D87" s="4"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D88" s="4"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="4"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="4"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="4"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="4"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="93" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="4"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="94" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="4"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="95" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="4"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="96" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D96" s="4"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="97" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="4"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="98" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="4"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="99" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="4"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="100" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="4"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="101" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="4"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="102" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="4"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="103" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="4"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="104" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="4"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="105" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="4"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="106" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="4"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="107" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="4"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="108" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="4"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="109" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D109" s="4"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="110" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D110" s="4"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="111" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D111" s="4"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="112" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="4"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="113" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="4"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="114" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D114" s="4"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="115" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D115" s="4"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="116" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D116" s="4"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="117" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D117" s="4"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="118" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="4"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="119" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="4"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="120" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D120" s="4"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="121" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D121" s="4"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="122" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D122" s="4"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="123" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D123" s="4"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="124" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D124" s="4"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="125" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D125" s="4"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="126" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D126" s="4"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="127" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D127" s="4"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="128" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="4"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="129" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D129" s="4"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="130" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="4"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="131" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="4"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="132" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="4"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="133" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="4"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="134" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D134" s="4"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="135" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D135" s="4"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="136" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="4"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="137" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="4"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="138" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="4"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="139" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="4"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="140" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D140" s="4"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="141" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D141" s="4"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="142" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D142" s="4"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="143" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D143" s="4"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="144" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D144" s="4"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="145" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D145" s="4"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="146" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D146" s="4"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="147" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D147" s="4"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="148" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D148" s="4"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="149" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D149" s="4"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="150" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D150" s="4"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="151" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D151" s="4"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="152" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D152" s="4"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="153" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="4"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="154" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D154" s="4"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="155" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D155" s="4"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="156" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D156" s="4"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="157" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D157" s="4"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="158" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D158" s="4"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="159" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D159" s="4"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="160" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="4"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="161" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D161" s="4"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="162" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D162" s="4"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="163" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D163" s="4"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="164" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D164" s="4"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="4:8" ht="16.5" thickTop="1" thickBot="1">
+    <row r="165" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D165" s="4"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="4:8" ht="15" thickTop="1"/>
+    <row r="166" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F08011A3-418C-48FF-9C9A-190F104344DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC008D56-3224-4B25-BE19-C8DAE0B5ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -138,13 +138,25 @@
   </si>
   <si>
     <t>Enemy Strenght</t>
+  </si>
+  <si>
+    <t>for me</t>
+  </si>
+  <si>
+    <t>4=== 7</t>
+  </si>
+  <si>
+    <t>7===…...</t>
+  </si>
+  <si>
+    <t>1===4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -189,8 +201,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,8 +241,13 @@
         <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -261,30 +285,49 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="5"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="7">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Calculation" xfId="4" builtinId="22"/>
     <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
     <cellStyle name="Good" xfId="3" builtinId="26"/>
     <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,7 +662,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -635,6 +678,8 @@
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
     <col min="10" max="10" width="18.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
@@ -671,6 +716,9 @@
       <c r="K1" t="s">
         <v>33</v>
       </c>
+      <c r="L1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -678,7 +726,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>25</v>
@@ -692,22 +740,28 @@
       <c r="F3">
         <v>1000</v>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3">
         <v>5</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f>C3/D3</f>
         <v>25</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="3">
         <f>(B3/60+I3/25+E3/50)*J3</f>
-        <v>2.8333333333333335</v>
+        <v>3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,7 +775,7 @@
         <v>25</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E4">
         <v>60</v>
@@ -729,22 +783,28 @@
       <c r="F4">
         <v>1000</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
+      <c r="G4" s="6">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="I4">
-        <f t="shared" ref="I4:I38" si="0">C4/D4</f>
-        <v>25</v>
+      <c r="I4" s="3">
+        <f t="shared" ref="I4:I13" si="0">C4/D4</f>
+        <v>19.23076923076923</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <f t="shared" ref="K4:K27" si="1">(B4/60+I4/25+E4/50)*J4</f>
-        <v>2.8666666666666663</v>
+      <c r="K4" s="3">
+        <f t="shared" ref="K4:K13" si="1">(B4/60+I4/25+E4/50)*J4</f>
+        <v>2.6358974358974354</v>
+      </c>
+      <c r="L4" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -758,7 +818,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E5">
         <v>50</v>
@@ -766,22 +826,28 @@
       <c r="F5">
         <v>1000</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
+      <c r="G5" s="6">
+        <v>0</v>
+      </c>
+      <c r="H5">
         <v>3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>5.45</v>
+        <v>5.75</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5.4</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -795,7 +861,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
         <v>40</v>
@@ -803,22 +869,25 @@
       <c r="F6">
         <v>1000</v>
       </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="G6" s="6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>5.5555555555555554</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>6.6666666666666679</v>
+        <v>6.7777777777777786</v>
+      </c>
+      <c r="L6" s="1">
+        <v>6.6</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -832,7 +901,7 @@
         <v>30</v>
       </c>
       <c r="D7" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E7">
         <v>35</v>
@@ -840,22 +909,25 @@
       <c r="F7">
         <v>1000</v>
       </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>3.2333333333333334</v>
+        <v>3.0333333333333332</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3.2</v>
       </c>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -877,22 +949,25 @@
       <c r="F8">
         <v>1000</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>6.6000000000000005</v>
+      </c>
+      <c r="L8" s="1">
+        <v>6.6</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -906,7 +981,7 @@
         <v>50</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="E9">
         <v>30</v>
@@ -914,22 +989,25 @@
       <c r="F9">
         <v>1000</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>10</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
-      <c r="K9">
-        <f>(B9/60+I9/25+E9/50)*J9</f>
-        <v>4.2666666666666666</v>
+      <c r="K9" s="3">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+      <c r="L9" s="5">
+        <v>4.2</v>
       </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -937,36 +1015,39 @@
         <v>17</v>
       </c>
       <c r="B10">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>1000</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>7</v>
-      </c>
-      <c r="I10">
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>3.8461538461538458</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>13.100000000000001</v>
+        <v>7.2230769230769241</v>
+      </c>
+      <c r="L10" s="2">
+        <v>7.5</v>
       </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -980,7 +1061,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="E11">
         <v>60</v>
@@ -988,21 +1069,24 @@
       <c r="F11">
         <v>1000</v>
       </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
+      <c r="G11" s="6">
+        <v>0</v>
+      </c>
+      <c r="H11">
         <v>5</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="3">
         <f t="shared" si="1"/>
+        <v>5.5666666666666664</v>
+      </c>
+      <c r="L11" s="2">
         <v>6.1</v>
       </c>
     </row>
@@ -1017,7 +1101,7 @@
         <v>45</v>
       </c>
       <c r="D12" s="4">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
         <v>35</v>
@@ -1025,21 +1109,24 @@
       <c r="F12">
         <v>1000</v>
       </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="G12" s="6">
+        <v>0</v>
+      </c>
+      <c r="H12">
         <v>10</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="3">
         <f t="shared" si="1"/>
+        <v>5.2</v>
+      </c>
+      <c r="L12" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1062,22 +1149,25 @@
       <c r="F13">
         <v>1000</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="3">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="3">
         <f t="shared" si="1"/>
         <v>10.399999999999999</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10.4</v>
       </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1141,7 +1231,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1152,7 +1242,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="E17">
         <v>65</v>
@@ -1160,26 +1250,29 @@
       <c r="F17">
         <v>1000</v>
       </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="3">
+      <c r="G17" s="6">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>10</v>
       </c>
-      <c r="I17">
-        <f t="shared" si="0"/>
-        <v>55</v>
+      <c r="I17" s="3">
+        <f t="shared" ref="I4:I38" si="2">C17/D17</f>
+        <v>68.75</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17">
-        <f t="shared" si="1"/>
-        <v>4.833333333333333</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="K17" s="3">
+        <f t="shared" ref="K4:K27" si="3">(B17/60+I17/25+E17/50)*J17</f>
+        <v>5.3833333333333329</v>
+      </c>
+      <c r="L17" s="5">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B18">
@@ -1189,7 +1282,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -1197,25 +1290,28 @@
       <c r="F18">
         <v>1000</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="G18" s="6">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>8</v>
       </c>
-      <c r="I18">
-        <f t="shared" si="0"/>
-        <v>10</v>
+      <c r="I18" s="3">
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
-      <c r="K18">
-        <f t="shared" si="1"/>
+      <c r="K18" s="3">
+        <f t="shared" si="3"/>
+        <v>3.1</v>
+      </c>
+      <c r="L18" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
@@ -1226,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="4">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="E19">
         <v>80</v>
@@ -1234,25 +1330,28 @@
       <c r="F19">
         <v>1000</v>
       </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
+      <c r="G19" s="6">
+        <v>0</v>
+      </c>
+      <c r="H19">
         <v>2</v>
       </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>5</v>
+      <c r="I19" s="3">
+        <f t="shared" si="2"/>
+        <v>25</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19">
-        <f t="shared" si="1"/>
-        <v>6.15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="3">
+        <f t="shared" si="3"/>
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="L19" s="1">
+        <v>6.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1271,25 +1370,28 @@
       <c r="F20">
         <v>1000</v>
       </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
+      <c r="G20" s="6">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>5</v>
       </c>
-      <c r="I20">
-        <f t="shared" si="0"/>
+      <c r="I20" s="3">
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
-      <c r="K20">
-        <f t="shared" si="1"/>
+      <c r="K20" s="3">
+        <f t="shared" si="3"/>
         <v>5.7666666666666666</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="2">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,25 +1410,28 @@
       <c r="F21">
         <v>1000</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="G21" s="6">
+        <v>0</v>
+      </c>
+      <c r="H21">
         <v>7</v>
       </c>
-      <c r="I21">
-        <f t="shared" si="0"/>
+      <c r="I21" s="3">
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J21">
         <v>5</v>
       </c>
-      <c r="K21">
-        <f t="shared" si="1"/>
+      <c r="K21" s="3">
+        <f t="shared" si="3"/>
         <v>9.5833333333333321</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1337,7 +1442,7 @@
         <v>40</v>
       </c>
       <c r="D22" s="4">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="E22">
         <v>35</v>
@@ -1345,25 +1450,28 @@
       <c r="F22">
         <v>1000</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22" s="3">
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22">
         <v>9</v>
       </c>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>40</v>
+      <c r="I22" s="3">
+        <f t="shared" si="2"/>
+        <v>28.571428571428573</v>
       </c>
       <c r="J22">
         <v>1</v>
       </c>
-      <c r="K22">
-        <f t="shared" si="1"/>
-        <v>3.55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <f t="shared" si="3"/>
+        <v>3.0928571428571434</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1374,7 +1482,7 @@
         <v>35</v>
       </c>
       <c r="D23" s="4">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="E23">
         <v>40</v>
@@ -1382,25 +1490,28 @@
       <c r="F23">
         <v>1000</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23">
         <v>7</v>
       </c>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>35</v>
+      <c r="I23" s="3">
+        <f t="shared" si="2"/>
+        <v>26.923076923076923</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
-      <c r="K23">
-        <f t="shared" si="1"/>
-        <v>6.0666666666666664</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="3">
+        <f t="shared" si="3"/>
+        <v>5.4205128205128208</v>
+      </c>
+      <c r="L23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1419,25 +1530,28 @@
       <c r="F24">
         <v>1000</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24">
         <v>9</v>
       </c>
-      <c r="I24">
-        <f t="shared" si="0"/>
+      <c r="I24" s="3">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
-      <c r="K24">
-        <f t="shared" si="1"/>
+      <c r="K24" s="3">
+        <f t="shared" si="3"/>
         <v>4.2833333333333332</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L24" s="5">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1448,7 +1562,7 @@
         <v>25</v>
       </c>
       <c r="D25" s="4">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="E25">
         <v>30</v>
@@ -1456,25 +1570,28 @@
       <c r="F25">
         <v>1000</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25">
         <v>5</v>
       </c>
-      <c r="I25">
-        <f t="shared" si="0"/>
-        <v>25</v>
+      <c r="I25" s="3">
+        <f t="shared" si="2"/>
+        <v>15.625</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
-      <c r="K25">
-        <f t="shared" si="1"/>
-        <v>2.2666666666666666</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <f t="shared" si="3"/>
+        <v>1.8916666666666666</v>
+      </c>
+      <c r="L25" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1485,7 +1602,7 @@
         <v>30</v>
       </c>
       <c r="D26" s="4">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="E26">
         <v>65</v>
@@ -1493,25 +1610,28 @@
       <c r="F26">
         <v>1000</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26">
         <v>4</v>
       </c>
-      <c r="I26">
-        <f t="shared" si="0"/>
-        <v>30</v>
+      <c r="I26" s="3">
+        <f t="shared" si="2"/>
+        <v>42.857142857142861</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
-      <c r="K26">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666661</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="3">
+        <f t="shared" si="3"/>
+        <v>7.6952380952380963</v>
+      </c>
+      <c r="L26" s="1">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1525,660 +1645,1077 @@
         <v>10000</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F27">
         <v>15</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27">
         <v>6</v>
       </c>
-      <c r="I27">
-        <f t="shared" si="0"/>
+      <c r="I27" s="3">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
-      <c r="K27">
-        <f t="shared" si="1"/>
-        <v>4.166666666666667</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="3">
+        <f t="shared" si="3"/>
+        <v>4.1866666666666665</v>
+      </c>
+      <c r="L27" s="2">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="4">
         <v>1</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>1</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <v>1</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <f>C30/D30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>1</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>1</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="3"/>
+    </row>
+    <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
-        <v>61.81818181818182</v>
+        <v>61.363636363636367</v>
       </c>
       <c r="C33">
         <f>AVERAGE(B33,C3,C4,C6,C5,C8,C7,C9:C13,C17:C27)</f>
-        <v>28.122529644268774</v>
+        <v>27.66798418972332</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33">
         <f>AVERAGE(D33,E17:E26,E3:E13)</f>
-        <v>47.31818181818182</v>
-      </c>
-      <c r="H33" s="3"/>
+        <v>46.863636363636367</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
       <c r="I33">
         <f>AVERAGE(I3,I3:I13,I17:I26)</f>
-        <v>27.727272727272727</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>27.751172438672437</v>
+      </c>
+      <c r="K33" s="3"/>
+    </row>
+    <row r="34" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D34" s="4">
         <v>1</v>
       </c>
-      <c r="H34" s="3"/>
+      <c r="G34" s="6">
+        <v>0</v>
+      </c>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K34" s="3"/>
+    </row>
+    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="H35" s="3"/>
+      <c r="G35" s="6">
+        <v>0</v>
+      </c>
       <c r="I35">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K35" s="3"/>
+    </row>
+    <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="H36" s="3"/>
+      <c r="G36" s="6">
+        <v>0</v>
+      </c>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K36" s="3"/>
+    </row>
+    <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="H37" s="3"/>
+      <c r="G37" s="6">
+        <v>0</v>
+      </c>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K37" s="3"/>
+    </row>
+    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="4">
         <v>1</v>
       </c>
-      <c r="H38" s="3"/>
+      <c r="G38" s="6">
+        <v>0</v>
+      </c>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="3"/>
+    </row>
+    <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4"/>
-      <c r="H39" s="3"/>
-    </row>
-    <row r="40" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
-      <c r="H40" s="3"/>
-    </row>
-    <row r="41" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4"/>
-      <c r="H41" s="3"/>
-    </row>
-    <row r="42" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4"/>
-      <c r="H42" s="3"/>
-    </row>
-    <row r="43" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3"/>
+    </row>
+    <row r="43" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="4"/>
-      <c r="H43" s="3"/>
-    </row>
-    <row r="44" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3"/>
+    </row>
+    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="4"/>
-      <c r="H44" s="3"/>
-    </row>
-    <row r="45" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="3"/>
+    </row>
+    <row r="45" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="4"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3"/>
+    </row>
+    <row r="46" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4"/>
-      <c r="H46" s="3"/>
-    </row>
-    <row r="47" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3"/>
+    </row>
+    <row r="47" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="4"/>
-      <c r="H47" s="3"/>
-    </row>
-    <row r="48" spans="2:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3"/>
+    </row>
+    <row r="48" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4"/>
-      <c r="H48" s="3"/>
-    </row>
-    <row r="49" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3"/>
+    </row>
+    <row r="49" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4"/>
-      <c r="H49" s="3"/>
-    </row>
-    <row r="50" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3"/>
+    </row>
+    <row r="50" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="4"/>
-      <c r="H50" s="3"/>
-    </row>
-    <row r="51" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3"/>
+    </row>
+    <row r="51" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D51" s="4"/>
-      <c r="H51" s="3"/>
-    </row>
-    <row r="52" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3"/>
+    </row>
+    <row r="52" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
-      <c r="H52" s="3"/>
-    </row>
-    <row r="53" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3"/>
+    </row>
+    <row r="53" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D53" s="4"/>
-      <c r="H53" s="3"/>
-    </row>
-    <row r="54" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G53" s="6">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3"/>
+    </row>
+    <row r="54" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="4"/>
-      <c r="H54" s="3"/>
-    </row>
-    <row r="55" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="6">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3"/>
+    </row>
+    <row r="55" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D55" s="4"/>
-      <c r="H55" s="3"/>
-    </row>
-    <row r="56" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G55" s="6">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3"/>
+    </row>
+    <row r="56" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="4"/>
-      <c r="H56" s="3"/>
-    </row>
-    <row r="57" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G56" s="6">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="4"/>
-      <c r="H57" s="3"/>
-    </row>
-    <row r="58" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3"/>
+    </row>
+    <row r="58" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
-      <c r="H58" s="3"/>
-    </row>
-    <row r="59" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3"/>
+    </row>
+    <row r="59" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
-      <c r="H59" s="3"/>
-    </row>
-    <row r="60" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
-      <c r="H60" s="3"/>
-    </row>
-    <row r="61" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="6">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3"/>
+    </row>
+    <row r="61" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
-      <c r="H61" s="3"/>
-    </row>
-    <row r="62" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G61" s="6">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3"/>
+    </row>
+    <row r="62" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
-      <c r="H62" s="3"/>
-    </row>
-    <row r="63" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G62" s="6">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3"/>
+    </row>
+    <row r="63" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
-      <c r="H63" s="3"/>
-    </row>
-    <row r="64" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G63" s="6">
+        <v>0</v>
+      </c>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
-      <c r="H64" s="3"/>
-    </row>
-    <row r="65" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="4"/>
-      <c r="H65" s="3"/>
-    </row>
-    <row r="66" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G65" s="6">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3"/>
+    </row>
+    <row r="66" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="4"/>
-      <c r="H66" s="3"/>
-    </row>
-    <row r="67" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3"/>
+    </row>
+    <row r="67" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
-      <c r="H67" s="3"/>
-    </row>
-    <row r="68" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="6">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="4"/>
-      <c r="H68" s="3"/>
-    </row>
-    <row r="69" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3"/>
+    </row>
+    <row r="69" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D69" s="4"/>
-      <c r="H69" s="3"/>
-    </row>
-    <row r="70" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="3"/>
+    </row>
+    <row r="70" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D70" s="4"/>
-      <c r="H70" s="3"/>
-    </row>
-    <row r="71" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="3"/>
+    </row>
+    <row r="71" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="4"/>
-      <c r="H71" s="3"/>
-    </row>
-    <row r="72" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="6">
+        <v>0</v>
+      </c>
+      <c r="K71" s="3"/>
+    </row>
+    <row r="72" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D72" s="4"/>
-      <c r="H72" s="3"/>
-    </row>
-    <row r="73" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3"/>
+    </row>
+    <row r="73" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="4"/>
-      <c r="H73" s="3"/>
-    </row>
-    <row r="74" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3"/>
+    </row>
+    <row r="74" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
-      <c r="H74" s="3"/>
-    </row>
-    <row r="75" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3"/>
+    </row>
+    <row r="75" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
-      <c r="H75" s="3"/>
-    </row>
-    <row r="76" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="6">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
-      <c r="H76" s="3"/>
-    </row>
-    <row r="77" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="6">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3"/>
+    </row>
+    <row r="77" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
-      <c r="H77" s="3"/>
-    </row>
-    <row r="78" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G77" s="6">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
-      <c r="H78" s="3"/>
-    </row>
-    <row r="79" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G78" s="6">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3"/>
+    </row>
+    <row r="79" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
-      <c r="H79" s="3"/>
-    </row>
-    <row r="80" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G79" s="6">
+        <v>0</v>
+      </c>
+      <c r="K79" s="3"/>
+    </row>
+    <row r="80" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
-      <c r="H80" s="3"/>
-    </row>
-    <row r="81" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G80" s="6">
+        <v>0</v>
+      </c>
+      <c r="K80" s="3"/>
+    </row>
+    <row r="81" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D81" s="4"/>
-      <c r="H81" s="3"/>
-    </row>
-    <row r="82" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G81" s="6">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3"/>
+    </row>
+    <row r="82" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="4"/>
-      <c r="H82" s="3"/>
-    </row>
-    <row r="83" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G82" s="6">
+        <v>0</v>
+      </c>
+      <c r="K82" s="3"/>
+    </row>
+    <row r="83" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D83" s="4"/>
-      <c r="H83" s="3"/>
-    </row>
-    <row r="84" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G83" s="6">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3"/>
+    </row>
+    <row r="84" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="4"/>
-      <c r="H84" s="3"/>
-    </row>
-    <row r="85" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="3"/>
+    </row>
+    <row r="85" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="4"/>
-      <c r="H85" s="3"/>
-    </row>
-    <row r="86" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G85" s="6">
+        <v>0</v>
+      </c>
+      <c r="K85" s="3"/>
+    </row>
+    <row r="86" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="4"/>
-      <c r="H86" s="3"/>
-    </row>
-    <row r="87" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G86" s="6">
+        <v>0</v>
+      </c>
+      <c r="K86" s="3"/>
+    </row>
+    <row r="87" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D87" s="4"/>
-      <c r="H87" s="3"/>
-    </row>
-    <row r="88" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G87" s="6">
+        <v>0</v>
+      </c>
+      <c r="K87" s="3"/>
+    </row>
+    <row r="88" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D88" s="4"/>
-      <c r="H88" s="3"/>
-    </row>
-    <row r="89" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G88" s="6">
+        <v>0</v>
+      </c>
+      <c r="K88" s="3"/>
+    </row>
+    <row r="89" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="4"/>
-      <c r="H89" s="3"/>
-    </row>
-    <row r="90" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G89" s="6">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3"/>
+    </row>
+    <row r="90" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="4"/>
-      <c r="H90" s="3"/>
-    </row>
-    <row r="91" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G90" s="6">
+        <v>0</v>
+      </c>
+      <c r="K90" s="3"/>
+    </row>
+    <row r="91" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="4"/>
-      <c r="H91" s="3"/>
-    </row>
-    <row r="92" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G91" s="6">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="4"/>
-      <c r="H92" s="3"/>
-    </row>
-    <row r="93" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G92" s="6">
+        <v>0</v>
+      </c>
+      <c r="K92" s="3"/>
+    </row>
+    <row r="93" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="4"/>
-      <c r="H93" s="3"/>
-    </row>
-    <row r="94" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G93" s="6">
+        <v>0</v>
+      </c>
+      <c r="K93" s="3"/>
+    </row>
+    <row r="94" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="4"/>
-      <c r="H94" s="3"/>
-    </row>
-    <row r="95" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G94" s="6">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3"/>
+    </row>
+    <row r="95" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="4"/>
-      <c r="H95" s="3"/>
-    </row>
-    <row r="96" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G95" s="6">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3"/>
+    </row>
+    <row r="96" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D96" s="4"/>
-      <c r="H96" s="3"/>
-    </row>
-    <row r="97" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G96" s="6">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3"/>
+    </row>
+    <row r="97" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="4"/>
-      <c r="H97" s="3"/>
-    </row>
-    <row r="98" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G97" s="6">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3"/>
+    </row>
+    <row r="98" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="4"/>
-      <c r="H98" s="3"/>
-    </row>
-    <row r="99" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G98" s="6">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3"/>
+    </row>
+    <row r="99" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="4"/>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G99" s="6">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3"/>
+    </row>
+    <row r="100" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="4"/>
-      <c r="H100" s="3"/>
-    </row>
-    <row r="101" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="4"/>
-      <c r="H101" s="3"/>
-    </row>
-    <row r="102" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G101" s="6">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3"/>
+    </row>
+    <row r="102" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="4"/>
-      <c r="H102" s="3"/>
-    </row>
-    <row r="103" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="6">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3"/>
+    </row>
+    <row r="103" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="4"/>
-      <c r="H103" s="3"/>
-    </row>
-    <row r="104" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="6">
+        <v>0</v>
+      </c>
+      <c r="K103" s="3"/>
+    </row>
+    <row r="104" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="4"/>
-      <c r="H104" s="3"/>
-    </row>
-    <row r="105" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G104" s="6">
+        <v>0</v>
+      </c>
+      <c r="K104" s="3"/>
+    </row>
+    <row r="105" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="4"/>
-      <c r="H105" s="3"/>
-    </row>
-    <row r="106" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="6">
+        <v>0</v>
+      </c>
+      <c r="K105" s="3"/>
+    </row>
+    <row r="106" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="4"/>
-      <c r="H106" s="3"/>
-    </row>
-    <row r="107" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="6">
+        <v>0</v>
+      </c>
+      <c r="K106" s="3"/>
+    </row>
+    <row r="107" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="4"/>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="6">
+        <v>0</v>
+      </c>
+      <c r="K107" s="3"/>
+    </row>
+    <row r="108" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="4"/>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G108" s="6">
+        <v>0</v>
+      </c>
+      <c r="K108" s="3"/>
+    </row>
+    <row r="109" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D109" s="4"/>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G109" s="6">
+        <v>0</v>
+      </c>
+      <c r="K109" s="3"/>
+    </row>
+    <row r="110" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D110" s="4"/>
-      <c r="H110" s="3"/>
-    </row>
-    <row r="111" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G110" s="6">
+        <v>0</v>
+      </c>
+      <c r="K110" s="3"/>
+    </row>
+    <row r="111" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D111" s="4"/>
-      <c r="H111" s="3"/>
-    </row>
-    <row r="112" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G111" s="6">
+        <v>0</v>
+      </c>
+      <c r="K111" s="3"/>
+    </row>
+    <row r="112" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="4"/>
-      <c r="H112" s="3"/>
-    </row>
-    <row r="113" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G112" s="6">
+        <v>0</v>
+      </c>
+      <c r="K112" s="3"/>
+    </row>
+    <row r="113" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="4"/>
-      <c r="H113" s="3"/>
-    </row>
-    <row r="114" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G113" s="6">
+        <v>0</v>
+      </c>
+      <c r="K113" s="3"/>
+    </row>
+    <row r="114" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D114" s="4"/>
-      <c r="H114" s="3"/>
-    </row>
-    <row r="115" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G114" s="6">
+        <v>0</v>
+      </c>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D115" s="4"/>
-      <c r="H115" s="3"/>
-    </row>
-    <row r="116" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G115" s="6">
+        <v>0</v>
+      </c>
+      <c r="K115" s="3"/>
+    </row>
+    <row r="116" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D116" s="4"/>
-      <c r="H116" s="3"/>
-    </row>
-    <row r="117" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G116" s="6">
+        <v>0</v>
+      </c>
+      <c r="K116" s="3"/>
+    </row>
+    <row r="117" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D117" s="4"/>
-      <c r="H117" s="3"/>
-    </row>
-    <row r="118" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="6">
+        <v>0</v>
+      </c>
+      <c r="K117" s="3"/>
+    </row>
+    <row r="118" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="4"/>
-      <c r="H118" s="3"/>
-    </row>
-    <row r="119" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G118" s="6">
+        <v>0</v>
+      </c>
+      <c r="K118" s="3"/>
+    </row>
+    <row r="119" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="4"/>
-      <c r="H119" s="3"/>
-    </row>
-    <row r="120" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G119" s="6">
+        <v>0</v>
+      </c>
+      <c r="K119" s="3"/>
+    </row>
+    <row r="120" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D120" s="4"/>
-      <c r="H120" s="3"/>
-    </row>
-    <row r="121" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G120" s="6">
+        <v>0</v>
+      </c>
+      <c r="K120" s="3"/>
+    </row>
+    <row r="121" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D121" s="4"/>
-      <c r="H121" s="3"/>
-    </row>
-    <row r="122" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G121" s="6">
+        <v>0</v>
+      </c>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D122" s="4"/>
-      <c r="H122" s="3"/>
-    </row>
-    <row r="123" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G122" s="6">
+        <v>0</v>
+      </c>
+      <c r="K122" s="3"/>
+    </row>
+    <row r="123" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D123" s="4"/>
-      <c r="H123" s="3"/>
-    </row>
-    <row r="124" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G123" s="6">
+        <v>0</v>
+      </c>
+      <c r="K123" s="3"/>
+    </row>
+    <row r="124" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D124" s="4"/>
-      <c r="H124" s="3"/>
-    </row>
-    <row r="125" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G124" s="6">
+        <v>0</v>
+      </c>
+      <c r="K124" s="3"/>
+    </row>
+    <row r="125" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D125" s="4"/>
-      <c r="H125" s="3"/>
-    </row>
-    <row r="126" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G125" s="6">
+        <v>0</v>
+      </c>
+      <c r="K125" s="3"/>
+    </row>
+    <row r="126" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D126" s="4"/>
-      <c r="H126" s="3"/>
-    </row>
-    <row r="127" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G126" s="6">
+        <v>0</v>
+      </c>
+      <c r="K126" s="3"/>
+    </row>
+    <row r="127" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D127" s="4"/>
-      <c r="H127" s="3"/>
-    </row>
-    <row r="128" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G127" s="6">
+        <v>0</v>
+      </c>
+      <c r="K127" s="3"/>
+    </row>
+    <row r="128" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="4"/>
-      <c r="H128" s="3"/>
-    </row>
-    <row r="129" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G128" s="6">
+        <v>0</v>
+      </c>
+      <c r="K128" s="3"/>
+    </row>
+    <row r="129" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D129" s="4"/>
-      <c r="H129" s="3"/>
-    </row>
-    <row r="130" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G129" s="6">
+        <v>0</v>
+      </c>
+      <c r="K129" s="3"/>
+    </row>
+    <row r="130" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="4"/>
-      <c r="H130" s="3"/>
-    </row>
-    <row r="131" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G130" s="6">
+        <v>0</v>
+      </c>
+      <c r="K130" s="3"/>
+    </row>
+    <row r="131" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="4"/>
-      <c r="H131" s="3"/>
-    </row>
-    <row r="132" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G131" s="6">
+        <v>0</v>
+      </c>
+      <c r="K131" s="3"/>
+    </row>
+    <row r="132" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="4"/>
-      <c r="H132" s="3"/>
-    </row>
-    <row r="133" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G132" s="6">
+        <v>0</v>
+      </c>
+      <c r="K132" s="3"/>
+    </row>
+    <row r="133" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="4"/>
-      <c r="H133" s="3"/>
-    </row>
-    <row r="134" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="6">
+        <v>0</v>
+      </c>
+      <c r="K133" s="3"/>
+    </row>
+    <row r="134" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D134" s="4"/>
-      <c r="H134" s="3"/>
-    </row>
-    <row r="135" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G134" s="6">
+        <v>0</v>
+      </c>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D135" s="4"/>
-      <c r="H135" s="3"/>
-    </row>
-    <row r="136" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G135" s="6">
+        <v>0</v>
+      </c>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="4"/>
-      <c r="H136" s="3"/>
-    </row>
-    <row r="137" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G136" s="6">
+        <v>0</v>
+      </c>
+      <c r="K136" s="3"/>
+    </row>
+    <row r="137" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="4"/>
-      <c r="H137" s="3"/>
-    </row>
-    <row r="138" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G137" s="6">
+        <v>0</v>
+      </c>
+      <c r="K137" s="3"/>
+    </row>
+    <row r="138" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="4"/>
-      <c r="H138" s="3"/>
-    </row>
-    <row r="139" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G138" s="6">
+        <v>0</v>
+      </c>
+      <c r="K138" s="3"/>
+    </row>
+    <row r="139" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="4"/>
-      <c r="H139" s="3"/>
-    </row>
-    <row r="140" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G139" s="6">
+        <v>0</v>
+      </c>
+      <c r="K139" s="3"/>
+    </row>
+    <row r="140" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D140" s="4"/>
-      <c r="H140" s="3"/>
-    </row>
-    <row r="141" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G140" s="6">
+        <v>0</v>
+      </c>
+      <c r="K140" s="3"/>
+    </row>
+    <row r="141" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D141" s="4"/>
-      <c r="H141" s="3"/>
-    </row>
-    <row r="142" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G141" s="6">
+        <v>0</v>
+      </c>
+      <c r="K141" s="3"/>
+    </row>
+    <row r="142" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D142" s="4"/>
-      <c r="H142" s="3"/>
-    </row>
-    <row r="143" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G142" s="6">
+        <v>0</v>
+      </c>
+      <c r="K142" s="3"/>
+    </row>
+    <row r="143" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D143" s="4"/>
-      <c r="H143" s="3"/>
-    </row>
-    <row r="144" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G143" s="6">
+        <v>0</v>
+      </c>
+      <c r="K143" s="3"/>
+    </row>
+    <row r="144" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D144" s="4"/>
-      <c r="H144" s="3"/>
-    </row>
-    <row r="145" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G144" s="6">
+        <v>0</v>
+      </c>
+      <c r="K144" s="3"/>
+    </row>
+    <row r="145" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D145" s="4"/>
-      <c r="H145" s="3"/>
-    </row>
-    <row r="146" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G145" s="6">
+        <v>0</v>
+      </c>
+      <c r="K145" s="3"/>
+    </row>
+    <row r="146" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D146" s="4"/>
-      <c r="H146" s="3"/>
-    </row>
-    <row r="147" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G146" s="6">
+        <v>0</v>
+      </c>
+      <c r="K146" s="3"/>
+    </row>
+    <row r="147" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D147" s="4"/>
-      <c r="H147" s="3"/>
-    </row>
-    <row r="148" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G147" s="6">
+        <v>0</v>
+      </c>
+      <c r="K147" s="3"/>
+    </row>
+    <row r="148" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D148" s="4"/>
-      <c r="H148" s="3"/>
-    </row>
-    <row r="149" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G148" s="6">
+        <v>0</v>
+      </c>
+      <c r="K148" s="3"/>
+    </row>
+    <row r="149" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D149" s="4"/>
-      <c r="H149" s="3"/>
-    </row>
-    <row r="150" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="6">
+        <v>0</v>
+      </c>
+      <c r="K149" s="3"/>
+    </row>
+    <row r="150" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D150" s="4"/>
-      <c r="H150" s="3"/>
-    </row>
-    <row r="151" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G150" s="6">
+        <v>0</v>
+      </c>
+      <c r="K150" s="3"/>
+    </row>
+    <row r="151" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D151" s="4"/>
-      <c r="H151" s="3"/>
-    </row>
-    <row r="152" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G151" s="6">
+        <v>0</v>
+      </c>
+      <c r="K151" s="3"/>
+    </row>
+    <row r="152" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D152" s="4"/>
-      <c r="H152" s="3"/>
-    </row>
-    <row r="153" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G152" s="6">
+        <v>0</v>
+      </c>
+      <c r="K152" s="3"/>
+    </row>
+    <row r="153" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="4"/>
-      <c r="H153" s="3"/>
-    </row>
-    <row r="154" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G153" s="6">
+        <v>0</v>
+      </c>
+      <c r="K153" s="3"/>
+    </row>
+    <row r="154" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D154" s="4"/>
-      <c r="H154" s="3"/>
-    </row>
-    <row r="155" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G154" s="6">
+        <v>0</v>
+      </c>
+      <c r="K154" s="3"/>
+    </row>
+    <row r="155" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D155" s="4"/>
-      <c r="H155" s="3"/>
-    </row>
-    <row r="156" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G155" s="6">
+        <v>0</v>
+      </c>
+      <c r="K155" s="3"/>
+    </row>
+    <row r="156" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D156" s="4"/>
-      <c r="H156" s="3"/>
-    </row>
-    <row r="157" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G156" s="6">
+        <v>0</v>
+      </c>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D157" s="4"/>
-      <c r="H157" s="3"/>
-    </row>
-    <row r="158" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G157" s="6">
+        <v>0</v>
+      </c>
+      <c r="K157" s="3"/>
+    </row>
+    <row r="158" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D158" s="4"/>
-      <c r="H158" s="3"/>
-    </row>
-    <row r="159" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G158" s="6">
+        <v>0</v>
+      </c>
+      <c r="K158" s="3"/>
+    </row>
+    <row r="159" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D159" s="4"/>
-      <c r="H159" s="3"/>
-    </row>
-    <row r="160" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G159" s="6">
+        <v>0</v>
+      </c>
+      <c r="K159" s="3"/>
+    </row>
+    <row r="160" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="4"/>
-      <c r="H160" s="3"/>
-    </row>
-    <row r="161" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G160" s="6">
+        <v>0</v>
+      </c>
+      <c r="K160" s="3"/>
+    </row>
+    <row r="161" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D161" s="4"/>
-      <c r="H161" s="3"/>
-    </row>
-    <row r="162" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G161" s="6">
+        <v>0</v>
+      </c>
+      <c r="K161" s="3"/>
+    </row>
+    <row r="162" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D162" s="4"/>
-      <c r="H162" s="3"/>
-    </row>
-    <row r="163" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G162" s="6">
+        <v>0</v>
+      </c>
+      <c r="K162" s="3"/>
+    </row>
+    <row r="163" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D163" s="4"/>
-      <c r="H163" s="3"/>
-    </row>
-    <row r="164" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G163" s="6">
+        <v>0</v>
+      </c>
+      <c r="K163" s="3"/>
+    </row>
+    <row r="164" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D164" s="4"/>
-      <c r="H164" s="3"/>
-    </row>
-    <row r="165" spans="4:8" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G164" s="6">
+        <v>0</v>
+      </c>
+      <c r="K164" s="3"/>
+    </row>
+    <row r="165" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D165" s="4"/>
-      <c r="H165" s="3"/>
-    </row>
-    <row r="166" spans="4:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="G165" s="6">
+        <v>0</v>
+      </c>
+      <c r="K165" s="3"/>
+    </row>
+    <row r="166" spans="4:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC008D56-3224-4B25-BE19-C8DAE0B5ADC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE0511-470A-4ACB-B0F2-A9469C2A1156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -140,9 +140,6 @@
     <t>Enemy Strenght</t>
   </si>
   <si>
-    <t>for me</t>
-  </si>
-  <si>
     <t>4=== 7</t>
   </si>
   <si>
@@ -150,6 +147,24 @@
   </si>
   <si>
     <t>1===4</t>
+  </si>
+  <si>
+    <t>Colours</t>
+  </si>
+  <si>
+    <t>Mana</t>
+  </si>
+  <si>
+    <t>1 2 3 4</t>
+  </si>
+  <si>
+    <t>5 6 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8 9 10 </t>
+  </si>
+  <si>
+    <t>Balance</t>
   </si>
 </sst>
 </file>
@@ -662,7 +677,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,15 +689,17 @@
     <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
     <col min="11" max="11" width="17.140625" customWidth="1"/>
     <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
     <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,41 +718,52 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
       <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="4" t="s">
         <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>42</v>
+      </c>
+      <c r="M1" s="3"/>
+      <c r="N1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
     <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B3">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>60</v>
-      </c>
-      <c r="C3">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -748,37 +776,40 @@
       </c>
       <c r="I3" s="3">
         <f>C3/D3</f>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="3">
         <f>(B3/60+I3/25+E3/50)*J3</f>
-        <v>3</v>
-      </c>
-      <c r="L3" s="2">
-        <v>2.8</v>
-      </c>
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="L3" s="5"/>
+      <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="3"/>
     </row>
     <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B4">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="C4">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D4" s="4">
-        <v>1.3</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -791,37 +822,40 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I13" si="0">C4/D4</f>
-        <v>19.23076923076923</v>
+        <v>35</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K13" si="1">(B4/60+I4/25+E4/50)*J4</f>
-        <v>2.6358974358974354</v>
-      </c>
-      <c r="L4" s="2">
-        <v>2.8</v>
-      </c>
+        <v>4.0333333333333332</v>
+      </c>
+      <c r="L4" s="5"/>
+      <c r="M4" s="3"/>
       <c r="N4" s="7" t="s">
-        <v>35</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="O4" t="s">
+        <v>40</v>
+      </c>
+      <c r="P4" s="3"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B5">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D5" s="4">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="E5">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -834,21 +868,24 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>12.5</v>
+        <v>10.714285714285715</v>
       </c>
       <c r="J5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>5.75</v>
-      </c>
-      <c r="L5" s="1">
-        <v>5.4</v>
-      </c>
+        <v>3.647619047619048</v>
+      </c>
+      <c r="L5" s="5"/>
+      <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
@@ -861,10 +898,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="4">
-        <v>0.9</v>
+        <v>1.7</v>
       </c>
       <c r="E6">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -873,22 +910,24 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>5.5555555555555554</v>
+        <v>2.9411764705882355</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>6.7777777777777786</v>
-      </c>
-      <c r="L6" s="1">
-        <v>6.6</v>
-      </c>
+        <v>3.7549019607843137</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
     </row>
     <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -904,7 +943,7 @@
         <v>1.2</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -913,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
@@ -924,11 +963,9 @@
       </c>
       <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>3.0333333333333332</v>
-      </c>
-      <c r="L7" s="5">
-        <v>3.2</v>
-      </c>
+        <v>3.333333333333333</v>
+      </c>
+      <c r="L7" s="1"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -966,9 +1003,7 @@
         <f t="shared" si="1"/>
         <v>6.6000000000000005</v>
       </c>
-      <c r="L8" s="1">
-        <v>6.6</v>
-      </c>
+      <c r="L8" s="1"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1006,9 +1041,7 @@
         <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
-      <c r="L9" s="5">
-        <v>4.2</v>
-      </c>
+      <c r="L9" s="1"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1046,9 +1079,7 @@
         <f t="shared" si="1"/>
         <v>7.2230769230769241</v>
       </c>
-      <c r="L10" s="2">
-        <v>7.5</v>
-      </c>
+      <c r="L10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1086,9 +1117,7 @@
         <f t="shared" si="1"/>
         <v>5.5666666666666664</v>
       </c>
-      <c r="L11" s="2">
-        <v>6.1</v>
-      </c>
+      <c r="L11" s="5"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1113,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
@@ -1126,9 +1155,7 @@
         <f t="shared" si="1"/>
         <v>5.2</v>
       </c>
-      <c r="L12" s="5">
-        <v>4</v>
-      </c>
+      <c r="L12" s="1"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1166,9 +1193,7 @@
         <f t="shared" si="1"/>
         <v>10.399999999999999</v>
       </c>
-      <c r="L13" s="2">
-        <v>10.4</v>
-      </c>
+      <c r="L13" s="1"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1257,22 +1282,20 @@
         <v>10</v>
       </c>
       <c r="I17" s="3">
-        <f t="shared" ref="I4:I38" si="2">C17/D17</f>
+        <f t="shared" ref="I17:I38" si="2">C17/D17</f>
         <v>68.75</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" ref="K4:K27" si="3">(B17/60+I17/25+E17/50)*J17</f>
+        <f t="shared" ref="K17:K27" si="3">(B17/60+I17/25+E17/50)*J17</f>
         <v>5.3833333333333329</v>
       </c>
-      <c r="L17" s="5">
-        <v>4.8</v>
-      </c>
+      <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
@@ -1282,7 +1305,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="4">
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E18">
         <v>20</v>
@@ -1298,18 +1321,16 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4.545454545454545</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="3"/>
-        <v>3.1</v>
-      </c>
-      <c r="L18" s="2">
-        <v>3.3</v>
-      </c>
+        <v>3.0818181818181816</v>
+      </c>
+      <c r="L18" s="5"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
@@ -1347,9 +1368,7 @@
         <f t="shared" si="3"/>
         <v>8.5500000000000007</v>
       </c>
-      <c r="L19" s="1">
-        <v>6.1</v>
-      </c>
+      <c r="L19" s="1"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1387,25 +1406,23 @@
         <f t="shared" si="3"/>
         <v>5.7666666666666666</v>
       </c>
-      <c r="L20" s="2">
-        <v>5.7</v>
-      </c>
+      <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>1000</v>
@@ -1418,18 +1435,16 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="3"/>
-        <v>9.5833333333333321</v>
-      </c>
-      <c r="L21" s="1">
-        <v>9.5</v>
-      </c>
+        <v>6.5666666666666664</v>
+      </c>
+      <c r="L21" s="5"/>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1454,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I22" s="3">
         <f t="shared" si="2"/>
@@ -1467,9 +1482,7 @@
         <f t="shared" si="3"/>
         <v>3.0928571428571434</v>
       </c>
-      <c r="L22" s="5">
-        <v>3.5</v>
-      </c>
+      <c r="L22" s="1"/>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1507,9 +1520,7 @@
         <f t="shared" si="3"/>
         <v>5.4205128205128208</v>
       </c>
-      <c r="L23" s="2">
-        <v>6</v>
-      </c>
+      <c r="L23" s="5"/>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
@@ -1547,9 +1558,7 @@
         <f t="shared" si="3"/>
         <v>4.2833333333333332</v>
       </c>
-      <c r="L24" s="5">
-        <v>4.2</v>
-      </c>
+      <c r="L24" s="1"/>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1587,9 +1596,7 @@
         <f t="shared" si="3"/>
         <v>1.8916666666666666</v>
       </c>
-      <c r="L25" s="2">
-        <v>2.2000000000000002</v>
-      </c>
+      <c r="L25" s="1"/>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1627,9 +1634,7 @@
         <f t="shared" si="3"/>
         <v>7.6952380952380963</v>
       </c>
-      <c r="L26" s="1">
-        <v>6.6</v>
-      </c>
+      <c r="L26" s="2"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1667,9 +1672,7 @@
         <f t="shared" si="3"/>
         <v>4.1866666666666665</v>
       </c>
-      <c r="L27" s="2">
-        <v>4.0999999999999996</v>
-      </c>
+      <c r="L27" s="5"/>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="4">
@@ -1739,25 +1742,25 @@
     <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
-        <v>61.363636363636367</v>
+        <v>60.727272727272727</v>
       </c>
       <c r="C33">
         <f>AVERAGE(B33,C3,C4,C6,C5,C8,C7,C9:C13,C17:C27)</f>
-        <v>27.66798418972332</v>
+        <v>28.770750988142293</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33">
         <f>AVERAGE(D33,E17:E26,E3:E13)</f>
-        <v>46.863636363636367</v>
+        <v>45.045454545454547</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="I33">
         <f>AVERAGE(I3,I3:I13,I17:I26)</f>
-        <v>27.751172438672437</v>
+        <v>29.883653890672612</v>
       </c>
       <c r="K33" s="3"/>
     </row>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38CE0511-470A-4ACB-B0F2-A9469C2A1156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F349D6-50AE-49FF-958C-5BD1FD41F986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -140,15 +140,6 @@
     <t>Enemy Strenght</t>
   </si>
   <si>
-    <t>4=== 7</t>
-  </si>
-  <si>
-    <t>7===…...</t>
-  </si>
-  <si>
-    <t>1===4</t>
-  </si>
-  <si>
     <t>Colours</t>
   </si>
   <si>
@@ -165,6 +156,18 @@
   </si>
   <si>
     <t>Balance</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>1=30</t>
+  </si>
+  <si>
+    <t>30=60</t>
+  </si>
+  <si>
+    <t>60===</t>
   </si>
 </sst>
 </file>
@@ -677,7 +680,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="O27" sqref="N27:O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,14 +737,14 @@
         <v>33</v>
       </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M1" s="3"/>
       <c r="N1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="P1" s="3"/>
     </row>
@@ -754,10 +757,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
@@ -776,22 +779,22 @@
       </c>
       <c r="I3" s="3">
         <f>C3/D3</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="3">
         <f>(B3/60+I3/25+E3/50)*J3</f>
-        <v>4.0333333333333332</v>
-      </c>
-      <c r="L3" s="5"/>
+        <v>29.533333333333335</v>
+      </c>
+      <c r="L3" s="2"/>
       <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="O3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P3" s="3"/>
     </row>
@@ -800,10 +803,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="C4">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -822,22 +825,22 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I13" si="0">C4/D4</f>
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K13" si="1">(B4/60+I4/25+E4/50)*J4</f>
-        <v>4.0333333333333332</v>
-      </c>
-      <c r="L4" s="5"/>
+        <v>28.633333333333336</v>
+      </c>
+      <c r="L4" s="2"/>
       <c r="M4" s="3"/>
       <c r="N4" s="7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="O4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P4" s="3"/>
     </row>
@@ -846,16 +849,16 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="E5">
         <v>15</v>
-      </c>
-      <c r="D5" s="4">
-        <v>1.4</v>
-      </c>
-      <c r="E5">
-        <v>20</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -868,22 +871,22 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>10.714285714285715</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="J5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>3.647619047619048</v>
+        <v>16.777777777777779</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O5" t="s">
         <v>36</v>
-      </c>
-      <c r="O5" t="s">
-        <v>39</v>
       </c>
       <c r="P5" s="3"/>
     </row>
@@ -892,16 +895,16 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D6" s="4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="E6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -914,16 +917,16 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>2.9411764705882355</v>
+        <v>27.777777777777779</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>3.7549019607843137</v>
-      </c>
-      <c r="L6" s="5"/>
+        <v>25.244444444444444</v>
+      </c>
+      <c r="L6" s="2"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -934,16 +937,16 @@
         <v>14</v>
       </c>
       <c r="B7">
-        <v>80</v>
+        <v>950</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>950</v>
       </c>
       <c r="D7" s="4">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="E7">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -956,32 +959,32 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>1357.1428571428573</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>3.333333333333333</v>
-      </c>
-      <c r="L7" s="1"/>
+        <v>72.11904761904762</v>
+      </c>
+      <c r="L7" s="5"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -994,14 +997,14 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>6.6000000000000005</v>
+        <v>6.7</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -1010,16 +1013,16 @@
         <v>16</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="C9">
-        <v>50</v>
+        <v>4500</v>
       </c>
       <c r="D9" s="4">
-        <v>1.5</v>
+        <v>4</v>
       </c>
       <c r="E9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1028,36 +1031,36 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>1125</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="L9" s="1"/>
+        <v>79.533333333333346</v>
+      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4">
         <v>1.3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -1066,30 +1069,32 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>3.8461538461538458</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>7.2230769230769241</v>
-      </c>
-      <c r="L10" s="2"/>
+        <v>28.430769230769229</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B11">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C11">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="D11" s="4">
         <v>1.2</v>
@@ -1108,29 +1113,29 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
+        <v>333.33333333333337</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>5.5666666666666664</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>34.06666666666667</v>
+      </c>
+      <c r="L11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B12">
-        <v>90</v>
+        <v>900</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>450</v>
       </c>
       <c r="D12" s="4">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="E12">
         <v>35</v>
@@ -1142,36 +1147,36 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>75</v>
+        <v>642.85714285714289</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>5.2</v>
-      </c>
-      <c r="L12" s="1"/>
+        <v>82.828571428571436</v>
+      </c>
+      <c r="L12" s="5"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13">
+        <v>150</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="E13">
         <v>40</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>70</v>
       </c>
       <c r="F13">
         <v>1000</v>
@@ -1184,16 +1189,16 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>250</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>10.399999999999999</v>
-      </c>
-      <c r="L13" s="1"/>
+        <v>39.900000000000006</v>
+      </c>
+      <c r="L13" s="5"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1261,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="C17">
-        <v>55</v>
+        <v>550</v>
       </c>
       <c r="D17" s="4">
         <v>0.8</v>
@@ -1283,14 +1288,14 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17:I38" si="2">C17/D17</f>
-        <v>68.75</v>
+        <v>687.5</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ref="K17:K27" si="3">(B17/60+I17/25+E17/50)*J17</f>
-        <v>5.3833333333333329</v>
+        <v>42.133333333333333</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -1299,10 +1304,10 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>150</v>
+        <v>1500</v>
       </c>
       <c r="C18">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D18" s="4">
         <v>2.2000000000000002</v>
@@ -1321,26 +1326,26 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>4.545454545454545</v>
+        <v>45.454545454545453</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="3"/>
-        <v>3.0818181818181816</v>
-      </c>
-      <c r="L18" s="5"/>
+        <v>27.218181818181815</v>
+      </c>
+      <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D19" s="4">
         <v>0.2</v>
@@ -1359,26 +1364,26 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="3"/>
-        <v>8.5500000000000007</v>
-      </c>
-      <c r="L19" s="1"/>
+        <v>42.3</v>
+      </c>
+      <c r="L19" s="5"/>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="C20">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -1397,32 +1402,32 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="2"/>
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="3"/>
-        <v>5.7666666666666666</v>
+        <v>37.866666666666667</v>
       </c>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D21" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>1000</v>
@@ -1431,18 +1436,18 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>16.666666666666668</v>
       </c>
       <c r="J21">
         <v>10</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="3"/>
-        <v>6.5666666666666664</v>
+        <v>17</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -1451,10 +1456,10 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>750</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="D22" s="4">
         <v>1.4</v>
@@ -1473,14 +1478,14 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="2"/>
-        <v>28.571428571428573</v>
+        <v>285.71428571428572</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="3"/>
-        <v>3.0928571428571434</v>
+        <v>49.25714285714286</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -1489,10 +1494,10 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="D23" s="4">
         <v>1.3</v>
@@ -1511,14 +1516,14 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>26.923076923076923</v>
+        <v>269.23076923076923</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="3"/>
-        <v>5.4205128205128208</v>
+        <v>39.805128205128206</v>
       </c>
       <c r="L23" s="5"/>
     </row>
@@ -1527,10 +1532,10 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>65</v>
+        <v>650</v>
       </c>
       <c r="C24">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -1549,14 +1554,14 @@
       </c>
       <c r="I24" s="3">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="3"/>
-        <v>4.2833333333333332</v>
+        <v>32.033333333333339</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -1565,10 +1570,10 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>40</v>
+        <v>400</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>250</v>
       </c>
       <c r="D25" s="4">
         <v>1.6</v>
@@ -1587,14 +1592,14 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="2"/>
-        <v>15.625</v>
+        <v>156.25</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="3"/>
-        <v>1.8916666666666666</v>
+        <v>13.516666666666667</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -1603,10 +1608,10 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>300</v>
       </c>
       <c r="D26" s="4">
         <v>0.7</v>
@@ -1625,23 +1630,23 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="2"/>
-        <v>42.857142857142861</v>
+        <v>428.57142857142861</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="3"/>
-        <v>7.6952380952380963</v>
-      </c>
-      <c r="L26" s="2"/>
+        <v>53.552380952380965</v>
+      </c>
+      <c r="L26" s="1"/>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>250</v>
+        <v>2500</v>
       </c>
       <c r="C27">
         <v>0</v>
@@ -1670,7 +1675,7 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" si="3"/>
-        <v>4.1866666666666665</v>
+        <v>41.686666666666667</v>
       </c>
       <c r="L27" s="5"/>
     </row>
@@ -1742,25 +1747,25 @@
     <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
-        <v>60.727272727272727</v>
+        <v>641.81818181818187</v>
       </c>
       <c r="C33">
         <f>AVERAGE(B33,C3,C4,C6,C5,C8,C7,C9:C13,C17:C27)</f>
-        <v>28.770750988142293</v>
+        <v>477.90513833992094</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33">
         <f>AVERAGE(D33,E17:E26,E3:E13)</f>
-        <v>45.045454545454547</v>
+        <v>44.81818181818182</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="I33">
         <f>AVERAGE(I3,I3:I13,I17:I26)</f>
-        <v>29.883653890672612</v>
+        <v>370.20526821663185</v>
       </c>
       <c r="K33" s="3"/>
     </row>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F349D6-50AE-49FF-958C-5BD1FD41F986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5E17D7-1D38-49A3-BB19-8CC9113DA29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Balance</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>1=30</t>
@@ -328,7 +325,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -337,6 +334,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -680,7 +678,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="N27:O27"/>
+      <selection activeCell="R21" sqref="R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="C3">
         <v>500</v>
@@ -786,12 +784,12 @@
       </c>
       <c r="K3" s="3">
         <f>(B3/60+I3/25+E3/50)*J3</f>
-        <v>29.533333333333335</v>
-      </c>
-      <c r="L3" s="2"/>
+        <v>31.2</v>
+      </c>
+      <c r="L3" s="8"/>
       <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O3" t="s">
         <v>38</v>
@@ -806,13 +804,13 @@
         <v>800</v>
       </c>
       <c r="C4">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="D4" s="4">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="E4">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -825,19 +823,19 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I13" si="0">C4/D4</f>
-        <v>350</v>
+        <v>409.09090909090907</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K13" si="1">(B4/60+I4/25+E4/50)*J4</f>
-        <v>28.633333333333336</v>
-      </c>
-      <c r="L4" s="2"/>
+        <v>31.096969696969694</v>
+      </c>
+      <c r="L4" s="8"/>
       <c r="M4" s="3"/>
       <c r="N4" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="O4" t="s">
         <v>37</v>
@@ -855,7 +853,7 @@
         <v>100</v>
       </c>
       <c r="D5" s="4">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="E5">
         <v>15</v>
@@ -871,19 +869,19 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>55.555555555555557</v>
+        <v>62.5</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>16.777777777777779</v>
-      </c>
-      <c r="L5" s="5"/>
+        <v>18.166666666666668</v>
+      </c>
+      <c r="L5" s="8"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="O5" t="s">
         <v>36</v>
@@ -895,13 +893,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>300</v>
+        <v>220</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D6" s="4">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -917,16 +915,16 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>27.777777777777779</v>
+        <v>16</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>25.244444444444444</v>
-      </c>
-      <c r="L6" s="2"/>
+        <v>18.026666666666667</v>
+      </c>
+      <c r="L6" s="8"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -968,7 +966,7 @@
         <f t="shared" si="1"/>
         <v>72.11904761904762</v>
       </c>
-      <c r="L7" s="5"/>
+      <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -981,10 +979,10 @@
         <v>50</v>
       </c>
       <c r="D8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -993,20 +991,20 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>6.7</v>
-      </c>
-      <c r="L8" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1019,10 +1017,10 @@
         <v>4500</v>
       </c>
       <c r="D9" s="4">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="E9">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1035,32 +1033,32 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>1250</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>79.533333333333346</v>
-      </c>
-      <c r="L9" s="5"/>
+        <v>84.63333333333334</v>
+      </c>
+      <c r="L9" s="8"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B10">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="C10">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="D10" s="4">
         <v>1.3</v>
       </c>
       <c r="E10">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -1069,22 +1067,20 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>38.46153846153846</v>
+        <v>53.846153846153847</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>28.430769230769229</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>35.723076923076917</v>
+      </c>
+      <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1122,7 +1118,7 @@
         <f t="shared" si="1"/>
         <v>34.06666666666667</v>
       </c>
-      <c r="L11" s="2"/>
+      <c r="L11" s="8"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1135,10 +1131,10 @@
         <v>450</v>
       </c>
       <c r="D12" s="4">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="E12">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -1151,23 +1147,23 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>642.85714285714289</v>
+        <v>750</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>82.828571428571436</v>
-      </c>
-      <c r="L12" s="5"/>
+        <v>91.6</v>
+      </c>
+      <c r="L12" s="8"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C13">
         <v>100</v>
@@ -1176,7 +1172,7 @@
         <v>0.4</v>
       </c>
       <c r="E13">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F13">
         <v>1000</v>
@@ -1185,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
@@ -1196,9 +1192,9 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>39.900000000000006</v>
-      </c>
-      <c r="L13" s="5"/>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="L13" s="8"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1266,16 +1262,16 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>800</v>
+        <v>100</v>
       </c>
       <c r="C17">
-        <v>550</v>
+        <v>1000</v>
       </c>
       <c r="D17" s="4">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="E17">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>1000</v>
@@ -1288,16 +1284,16 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17:I38" si="2">C17/D17</f>
-        <v>687.5</v>
+        <v>2000</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" ref="K17:K27" si="3">(B17/60+I17/25+E17/50)*J17</f>
-        <v>42.133333333333333</v>
-      </c>
-      <c r="L17" s="1"/>
+        <v>83.066666666666677</v>
+      </c>
+      <c r="L17" s="5"/>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -1747,25 +1743,25 @@
     <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
-        <v>641.81818181818187</v>
+        <v>612.0454545454545</v>
       </c>
       <c r="C33">
         <f>AVERAGE(B33,C3,C4,C6,C5,C8,C7,C9:C13,C17:C27)</f>
-        <v>477.90513833992094</v>
+        <v>500.95849802371538</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33">
         <f>AVERAGE(D33,E17:E26,E3:E13)</f>
-        <v>44.81818181818182</v>
+        <v>46.409090909090907</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="I33">
         <f>AVERAGE(I3,I3:I13,I17:I26)</f>
-        <v>370.20526821663185</v>
+        <v>444.71822495686138</v>
       </c>
       <c r="K33" s="3"/>
     </row>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E5E17D7-1D38-49A3-BB19-8CC9113DA29F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -170,8 +164,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -315,6 +309,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -325,7 +330,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -335,15 +340,16 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="6" builtinId="10"/>
+    <cellStyle name="Вычисление" xfId="4" builtinId="22"/>
+    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Примечание" xfId="6" builtinId="10"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -667,40 +673,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -746,11 +752,11 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="M2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -796,7 +802,7 @@
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -842,7 +848,7 @@
       </c>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -888,7 +894,7 @@
       </c>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -930,7 +936,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -968,7 +974,7 @@
       </c>
       <c r="L7" s="8"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1006,7 +1012,7 @@
       </c>
       <c r="L8" s="8"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1044,7 +1050,7 @@
       </c>
       <c r="L9" s="8"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1082,7 +1088,7 @@
       </c>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1120,7 +1126,7 @@
       </c>
       <c r="L11" s="8"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1158,7 +1164,7 @@
       </c>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1196,8 +1202,8 @@
       </c>
       <c r="L13" s="8"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1256,8 +1262,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1295,7 +1301,7 @@
       </c>
       <c r="L17" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1333,7 +1339,7 @@
       </c>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1371,7 +1377,7 @@
       </c>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1409,7 +1415,7 @@
       </c>
       <c r="L20" s="5"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1447,7 +1453,7 @@
       </c>
       <c r="L21" s="5"/>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1485,7 +1491,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1523,7 +1529,7 @@
       </c>
       <c r="L23" s="5"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
@@ -1561,7 +1567,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1599,7 +1605,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1637,7 +1643,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1675,7 +1681,7 @@
       </c>
       <c r="L27" s="5"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D28" s="4">
         <v>1</v>
       </c>
@@ -1688,7 +1694,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1701,7 +1707,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D30" s="4">
         <v>1</v>
       </c>
@@ -1714,7 +1720,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D31" s="4">
         <v>1</v>
       </c>
@@ -1727,7 +1733,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D32" s="4">
         <v>1</v>
       </c>
@@ -1740,7 +1746,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
         <v>612.0454545454545</v>
@@ -1759,13 +1765,13 @@
       <c r="G33" s="6">
         <v>0</v>
       </c>
-      <c r="I33">
-        <f>AVERAGE(I3,I3:I13,I17:I26)</f>
-        <v>444.71822495686138</v>
+      <c r="I33" s="9">
+        <f>AVERAGE(I17:I32,I17:I27,I3:I13)</f>
+        <v>356.20233275496435</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D34" s="4">
         <v>1</v>
       </c>
@@ -1778,7 +1784,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -1791,7 +1797,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D36" s="4">
         <v>1</v>
       </c>
@@ -1804,7 +1810,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D37" s="4">
         <v>1</v>
       </c>
@@ -1817,7 +1823,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D38" s="4">
         <v>1</v>
       </c>
@@ -1830,896 +1836,896 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D39" s="4"/>
       <c r="G39" s="6">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D40" s="4"/>
       <c r="G40" s="6">
         <v>0</v>
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D41" s="4"/>
       <c r="G41" s="6">
         <v>0</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D42" s="4"/>
       <c r="G42" s="6">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D43" s="4"/>
       <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D44" s="4"/>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D45" s="4"/>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D46" s="4"/>
       <c r="G46" s="6">
         <v>0</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D47" s="4"/>
       <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D48" s="4"/>
       <c r="G48" s="6">
         <v>0</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D49" s="4"/>
       <c r="G49" s="6">
         <v>0</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D50" s="4"/>
       <c r="G50" s="6">
         <v>0</v>
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D51" s="4"/>
       <c r="G51" s="6">
         <v>0</v>
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D52" s="4"/>
       <c r="G52" s="6">
         <v>0</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D53" s="4"/>
       <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D54" s="4"/>
       <c r="G54" s="6">
         <v>0</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D55" s="4"/>
       <c r="G55" s="6">
         <v>0</v>
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D56" s="4"/>
       <c r="G56" s="6">
         <v>0</v>
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D57" s="4"/>
       <c r="G57" s="6">
         <v>0</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D58" s="4"/>
       <c r="G58" s="6">
         <v>0</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D59" s="4"/>
       <c r="G59" s="6">
         <v>0</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D60" s="4"/>
       <c r="G60" s="6">
         <v>0</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D61" s="4"/>
       <c r="G61" s="6">
         <v>0</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="4"/>
       <c r="G62" s="6">
         <v>0</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D63" s="4"/>
       <c r="G63" s="6">
         <v>0</v>
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D64" s="4"/>
       <c r="G64" s="6">
         <v>0</v>
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D65" s="4"/>
       <c r="G65" s="6">
         <v>0</v>
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D66" s="4"/>
       <c r="G66" s="6">
         <v>0</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D67" s="4"/>
       <c r="G67" s="6">
         <v>0</v>
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D68" s="4"/>
       <c r="G68" s="6">
         <v>0</v>
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D69" s="4"/>
       <c r="G69" s="6">
         <v>0</v>
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D70" s="4"/>
       <c r="G70" s="6">
         <v>0</v>
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D71" s="4"/>
       <c r="G71" s="6">
         <v>0</v>
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D72" s="4"/>
       <c r="G72" s="6">
         <v>0</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D73" s="4"/>
       <c r="G73" s="6">
         <v>0</v>
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D74" s="4"/>
       <c r="G74" s="6">
         <v>0</v>
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D75" s="4"/>
       <c r="G75" s="6">
         <v>0</v>
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D76" s="4"/>
       <c r="G76" s="6">
         <v>0</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D77" s="4"/>
       <c r="G77" s="6">
         <v>0</v>
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D78" s="4"/>
       <c r="G78" s="6">
         <v>0</v>
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D79" s="4"/>
       <c r="G79" s="6">
         <v>0</v>
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D80" s="4"/>
       <c r="G80" s="6">
         <v>0</v>
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D81" s="4"/>
       <c r="G81" s="6">
         <v>0</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D82" s="4"/>
       <c r="G82" s="6">
         <v>0</v>
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D83" s="4"/>
       <c r="G83" s="6">
         <v>0</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D84" s="4"/>
       <c r="G84" s="6">
         <v>0</v>
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D85" s="4"/>
       <c r="G85" s="6">
         <v>0</v>
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D86" s="4"/>
       <c r="G86" s="6">
         <v>0</v>
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D87" s="4"/>
       <c r="G87" s="6">
         <v>0</v>
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D88" s="4"/>
       <c r="G88" s="6">
         <v>0</v>
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D89" s="4"/>
       <c r="G89" s="6">
         <v>0</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D90" s="4"/>
       <c r="G90" s="6">
         <v>0</v>
       </c>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D91" s="4"/>
       <c r="G91" s="6">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D92" s="4"/>
       <c r="G92" s="6">
         <v>0</v>
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D93" s="4"/>
       <c r="G93" s="6">
         <v>0</v>
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D94" s="4"/>
       <c r="G94" s="6">
         <v>0</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D95" s="4"/>
       <c r="G95" s="6">
         <v>0</v>
       </c>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D96" s="4"/>
       <c r="G96" s="6">
         <v>0</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D97" s="4"/>
       <c r="G97" s="6">
         <v>0</v>
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D98" s="4"/>
       <c r="G98" s="6">
         <v>0</v>
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D99" s="4"/>
       <c r="G99" s="6">
         <v>0</v>
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D100" s="4"/>
       <c r="G100" s="6">
         <v>0</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D101" s="4"/>
       <c r="G101" s="6">
         <v>0</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D102" s="4"/>
       <c r="G102" s="6">
         <v>0</v>
       </c>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D103" s="4"/>
       <c r="G103" s="6">
         <v>0</v>
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D104" s="4"/>
       <c r="G104" s="6">
         <v>0</v>
       </c>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D105" s="4"/>
       <c r="G105" s="6">
         <v>0</v>
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D106" s="4"/>
       <c r="G106" s="6">
         <v>0</v>
       </c>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D107" s="4"/>
       <c r="G107" s="6">
         <v>0</v>
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D108" s="4"/>
       <c r="G108" s="6">
         <v>0</v>
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D109" s="4"/>
       <c r="G109" s="6">
         <v>0</v>
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D110" s="4"/>
       <c r="G110" s="6">
         <v>0</v>
       </c>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D111" s="4"/>
       <c r="G111" s="6">
         <v>0</v>
       </c>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D112" s="4"/>
       <c r="G112" s="6">
         <v>0</v>
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D113" s="4"/>
       <c r="G113" s="6">
         <v>0</v>
       </c>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D114" s="4"/>
       <c r="G114" s="6">
         <v>0</v>
       </c>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D115" s="4"/>
       <c r="G115" s="6">
         <v>0</v>
       </c>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D116" s="4"/>
       <c r="G116" s="6">
         <v>0</v>
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D117" s="4"/>
       <c r="G117" s="6">
         <v>0</v>
       </c>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D118" s="4"/>
       <c r="G118" s="6">
         <v>0</v>
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D119" s="4"/>
       <c r="G119" s="6">
         <v>0</v>
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D120" s="4"/>
       <c r="G120" s="6">
         <v>0</v>
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D121" s="4"/>
       <c r="G121" s="6">
         <v>0</v>
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D122" s="4"/>
       <c r="G122" s="6">
         <v>0</v>
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D123" s="4"/>
       <c r="G123" s="6">
         <v>0</v>
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D124" s="4"/>
       <c r="G124" s="6">
         <v>0</v>
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D125" s="4"/>
       <c r="G125" s="6">
         <v>0</v>
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D126" s="4"/>
       <c r="G126" s="6">
         <v>0</v>
       </c>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D127" s="4"/>
       <c r="G127" s="6">
         <v>0</v>
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D128" s="4"/>
       <c r="G128" s="6">
         <v>0</v>
       </c>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D129" s="4"/>
       <c r="G129" s="6">
         <v>0</v>
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D130" s="4"/>
       <c r="G130" s="6">
         <v>0</v>
       </c>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D131" s="4"/>
       <c r="G131" s="6">
         <v>0</v>
       </c>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D132" s="4"/>
       <c r="G132" s="6">
         <v>0</v>
       </c>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D133" s="4"/>
       <c r="G133" s="6">
         <v>0</v>
       </c>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D134" s="4"/>
       <c r="G134" s="6">
         <v>0</v>
       </c>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D135" s="4"/>
       <c r="G135" s="6">
         <v>0</v>
       </c>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D136" s="4"/>
       <c r="G136" s="6">
         <v>0</v>
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D137" s="4"/>
       <c r="G137" s="6">
         <v>0</v>
       </c>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D138" s="4"/>
       <c r="G138" s="6">
         <v>0</v>
       </c>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D139" s="4"/>
       <c r="G139" s="6">
         <v>0</v>
       </c>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D140" s="4"/>
       <c r="G140" s="6">
         <v>0</v>
       </c>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D141" s="4"/>
       <c r="G141" s="6">
         <v>0</v>
       </c>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D142" s="4"/>
       <c r="G142" s="6">
         <v>0</v>
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D143" s="4"/>
       <c r="G143" s="6">
         <v>0</v>
       </c>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D144" s="4"/>
       <c r="G144" s="6">
         <v>0</v>
       </c>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D145" s="4"/>
       <c r="G145" s="6">
         <v>0</v>
       </c>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D146" s="4"/>
       <c r="G146" s="6">
         <v>0</v>
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D147" s="4"/>
       <c r="G147" s="6">
         <v>0</v>
       </c>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D148" s="4"/>
       <c r="G148" s="6">
         <v>0</v>
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D149" s="4"/>
       <c r="G149" s="6">
         <v>0</v>
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D150" s="4"/>
       <c r="G150" s="6">
         <v>0</v>
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D151" s="4"/>
       <c r="G151" s="6">
         <v>0</v>
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D152" s="4"/>
       <c r="G152" s="6">
         <v>0</v>
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D153" s="4"/>
       <c r="G153" s="6">
         <v>0</v>
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D154" s="4"/>
       <c r="G154" s="6">
         <v>0</v>
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D155" s="4"/>
       <c r="G155" s="6">
         <v>0</v>
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D156" s="4"/>
       <c r="G156" s="6">
         <v>0</v>
       </c>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D157" s="4"/>
       <c r="G157" s="6">
         <v>0</v>
       </c>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D158" s="4"/>
       <c r="G158" s="6">
         <v>0</v>
       </c>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D159" s="4"/>
       <c r="G159" s="6">
         <v>0</v>
       </c>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D160" s="4"/>
       <c r="G160" s="6">
         <v>0</v>
       </c>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D161" s="4"/>
       <c r="G161" s="6">
         <v>0</v>
       </c>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D162" s="4"/>
       <c r="G162" s="6">
         <v>0</v>
       </c>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D163" s="4"/>
       <c r="G163" s="6">
         <v>0</v>
       </c>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D164" s="4"/>
       <c r="G164" s="6">
         <v>0</v>
       </c>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D165" s="4"/>
       <c r="G165" s="6">
         <v>0</v>
       </c>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="4:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="4:11" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9CFE83-9FDD-40F3-BA97-0C52BEA283F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -159,13 +165,16 @@
   </si>
   <si>
     <t>60===</t>
+  </si>
+  <si>
+    <t>EvilWizard</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,7 +339,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -339,17 +348,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="6" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Вычисление" xfId="4" builtinId="22"/>
-    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
-    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
-    <cellStyle name="Примечание" xfId="6" builtinId="10"/>
-    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
+    <cellStyle name="Good" xfId="3" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="6" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -673,40 +681,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C12" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="16.25" customWidth="1"/>
-    <col min="4" max="4" width="15.75" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
-    <col min="6" max="6" width="15.875" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="13.75" customWidth="1"/>
-    <col min="9" max="9" width="13.25" customWidth="1"/>
-    <col min="10" max="10" width="14.75" customWidth="1"/>
-    <col min="11" max="11" width="17.125" customWidth="1"/>
-    <col min="12" max="12" width="13.875" customWidth="1"/>
-    <col min="13" max="13" width="9.125" customWidth="1"/>
-    <col min="14" max="14" width="18.125" customWidth="1"/>
-    <col min="15" max="15" width="11.75" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17.140625" customWidth="1"/>
+    <col min="12" max="12" width="13.85546875" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="18.140625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -752,11 +760,11 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="M2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -792,7 +800,7 @@
         <f>(B3/60+I3/25+E3/50)*J3</f>
         <v>31.2</v>
       </c>
-      <c r="L3" s="8"/>
+      <c r="L3" s="1"/>
       <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
         <v>42</v>
@@ -802,7 +810,7 @@
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -838,7 +846,7 @@
         <f t="shared" ref="K4:K13" si="1">(B4/60+I4/25+E4/50)*J4</f>
         <v>31.096969696969694</v>
       </c>
-      <c r="L4" s="8"/>
+      <c r="L4" s="1"/>
       <c r="M4" s="3"/>
       <c r="N4" s="7" t="s">
         <v>41</v>
@@ -848,7 +856,7 @@
       </c>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -884,7 +892,7 @@
         <f t="shared" si="1"/>
         <v>18.166666666666668</v>
       </c>
-      <c r="L5" s="8"/>
+      <c r="L5" s="1"/>
       <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
         <v>40</v>
@@ -894,7 +902,7 @@
       </c>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -930,13 +938,13 @@
         <f t="shared" si="1"/>
         <v>18.026666666666667</v>
       </c>
-      <c r="L6" s="8"/>
+      <c r="L6" s="1"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -972,9 +980,9 @@
         <f t="shared" si="1"/>
         <v>72.11904761904762</v>
       </c>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1010,9 +1018,9 @@
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1048,9 +1056,9 @@
         <f t="shared" si="1"/>
         <v>84.63333333333334</v>
       </c>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1086,9 +1094,9 @@
         <f t="shared" si="1"/>
         <v>35.723076923076917</v>
       </c>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L10" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1124,9 +1132,9 @@
         <f t="shared" si="1"/>
         <v>34.06666666666667</v>
       </c>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1162,9 +1170,9 @@
         <f t="shared" si="1"/>
         <v>91.6</v>
       </c>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1200,10 +1208,10 @@
         <f t="shared" si="1"/>
         <v>39.950000000000003</v>
       </c>
-      <c r="L13" s="8"/>
-    </row>
-    <row r="14" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1262,8 +1270,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
-    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1299,9 +1307,9 @@
         <f t="shared" ref="K17:K27" si="3">(B17/60+I17/25+E17/50)*J17</f>
         <v>83.066666666666677</v>
       </c>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1337,9 +1345,9 @@
         <f t="shared" si="3"/>
         <v>27.218181818181815</v>
       </c>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1375,9 +1383,9 @@
         <f t="shared" si="3"/>
         <v>42.3</v>
       </c>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1421,9 @@
         <f t="shared" si="3"/>
         <v>37.866666666666667</v>
       </c>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1451,9 +1459,9 @@
         <f t="shared" si="3"/>
         <v>17</v>
       </c>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1491,7 +1499,7 @@
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1527,10 +1535,10 @@
         <f t="shared" si="3"/>
         <v>39.805128205128206</v>
       </c>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
-      <c r="A24" s="5" t="s">
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
@@ -1567,7 +1575,7 @@
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1605,7 +1613,7 @@
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1643,7 +1651,7 @@
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1679,9 +1687,12 @@
         <f t="shared" si="3"/>
         <v>41.686666666666667</v>
       </c>
-      <c r="L27" s="5"/>
-    </row>
-    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="D28" s="4">
         <v>1</v>
       </c>
@@ -1694,7 +1705,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1707,7 +1718,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D30" s="4">
         <v>1</v>
       </c>
@@ -1720,7 +1731,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D31" s="4">
         <v>1</v>
       </c>
@@ -1733,7 +1744,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D32" s="4">
         <v>1</v>
       </c>
@@ -1746,7 +1757,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
         <v>612.0454545454545</v>
@@ -1765,26 +1776,35 @@
       <c r="G33" s="6">
         <v>0</v>
       </c>
-      <c r="I33" s="9">
+      <c r="I33" s="8">
         <f>AVERAGE(I17:I32,I17:I27,I3:I13)</f>
         <v>356.20233275496435</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="34" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
       <c r="D34" s="4">
         <v>1</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
       </c>
       <c r="G34" s="6">
         <v>0</v>
       </c>
       <c r="I34">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -1797,7 +1817,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D36" s="4">
         <v>1</v>
       </c>
@@ -1810,7 +1830,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D37" s="4">
         <v>1</v>
       </c>
@@ -1823,7 +1843,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="4">
         <v>1</v>
       </c>
@@ -1836,896 +1856,896 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="4"/>
       <c r="G39" s="6">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D40" s="4"/>
       <c r="G40" s="6">
         <v>0</v>
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D41" s="4"/>
       <c r="G41" s="6">
         <v>0</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="42" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="4"/>
       <c r="G42" s="6">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="43" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D43" s="4"/>
       <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D44" s="4"/>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="45" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D45" s="4"/>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="46" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D46" s="4"/>
       <c r="G46" s="6">
         <v>0</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="47" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D47" s="4"/>
       <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="48" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D48" s="4"/>
       <c r="G48" s="6">
         <v>0</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="49" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D49" s="4"/>
       <c r="G49" s="6">
         <v>0</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="50" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D50" s="4"/>
       <c r="G50" s="6">
         <v>0</v>
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="51" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D51" s="4"/>
       <c r="G51" s="6">
         <v>0</v>
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="52" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D52" s="4"/>
       <c r="G52" s="6">
         <v>0</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="53" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D53" s="4"/>
       <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="54" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D54" s="4"/>
       <c r="G54" s="6">
         <v>0</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="55" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D55" s="4"/>
       <c r="G55" s="6">
         <v>0</v>
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="56" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D56" s="4"/>
       <c r="G56" s="6">
         <v>0</v>
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="57" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="4"/>
       <c r="G57" s="6">
         <v>0</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="58" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D58" s="4"/>
       <c r="G58" s="6">
         <v>0</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="59" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D59" s="4"/>
       <c r="G59" s="6">
         <v>0</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="60" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D60" s="4"/>
       <c r="G60" s="6">
         <v>0</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="61" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D61" s="4"/>
       <c r="G61" s="6">
         <v>0</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="62" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="4"/>
       <c r="G62" s="6">
         <v>0</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="63" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D63" s="4"/>
       <c r="G63" s="6">
         <v>0</v>
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="64" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D64" s="4"/>
       <c r="G64" s="6">
         <v>0</v>
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="65" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="4"/>
       <c r="G65" s="6">
         <v>0</v>
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="66" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D66" s="4"/>
       <c r="G66" s="6">
         <v>0</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="67" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D67" s="4"/>
       <c r="G67" s="6">
         <v>0</v>
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="68" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="4"/>
       <c r="G68" s="6">
         <v>0</v>
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="69" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D69" s="4"/>
       <c r="G69" s="6">
         <v>0</v>
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="70" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D70" s="4"/>
       <c r="G70" s="6">
         <v>0</v>
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="71" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D71" s="4"/>
       <c r="G71" s="6">
         <v>0</v>
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="72" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D72" s="4"/>
       <c r="G72" s="6">
         <v>0</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="73" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="4"/>
       <c r="G73" s="6">
         <v>0</v>
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="74" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="4"/>
       <c r="G74" s="6">
         <v>0</v>
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="75" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D75" s="4"/>
       <c r="G75" s="6">
         <v>0</v>
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="76" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D76" s="4"/>
       <c r="G76" s="6">
         <v>0</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="77" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D77" s="4"/>
       <c r="G77" s="6">
         <v>0</v>
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="78" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D78" s="4"/>
       <c r="G78" s="6">
         <v>0</v>
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="79" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D79" s="4"/>
       <c r="G79" s="6">
         <v>0</v>
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="80" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D80" s="4"/>
       <c r="G80" s="6">
         <v>0</v>
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="81" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D81" s="4"/>
       <c r="G81" s="6">
         <v>0</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="82" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D82" s="4"/>
       <c r="G82" s="6">
         <v>0</v>
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="83" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D83" s="4"/>
       <c r="G83" s="6">
         <v>0</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="84" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D84" s="4"/>
       <c r="G84" s="6">
         <v>0</v>
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="85" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D85" s="4"/>
       <c r="G85" s="6">
         <v>0</v>
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="86" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="4"/>
       <c r="G86" s="6">
         <v>0</v>
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="87" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D87" s="4"/>
       <c r="G87" s="6">
         <v>0</v>
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="88" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D88" s="4"/>
       <c r="G88" s="6">
         <v>0</v>
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="89" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D89" s="4"/>
       <c r="G89" s="6">
         <v>0</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="90" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D90" s="4"/>
       <c r="G90" s="6">
         <v>0</v>
       </c>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="91" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D91" s="4"/>
       <c r="G91" s="6">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="92" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D92" s="4"/>
       <c r="G92" s="6">
         <v>0</v>
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="93" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D93" s="4"/>
       <c r="G93" s="6">
         <v>0</v>
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="94" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D94" s="4"/>
       <c r="G94" s="6">
         <v>0</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="95" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D95" s="4"/>
       <c r="G95" s="6">
         <v>0</v>
       </c>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="96" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D96" s="4"/>
       <c r="G96" s="6">
         <v>0</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="97" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D97" s="4"/>
       <c r="G97" s="6">
         <v>0</v>
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="98" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D98" s="4"/>
       <c r="G98" s="6">
         <v>0</v>
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="99" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D99" s="4"/>
       <c r="G99" s="6">
         <v>0</v>
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="100" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D100" s="4"/>
       <c r="G100" s="6">
         <v>0</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="101" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D101" s="4"/>
       <c r="G101" s="6">
         <v>0</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="102" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D102" s="4"/>
       <c r="G102" s="6">
         <v>0</v>
       </c>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="103" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D103" s="4"/>
       <c r="G103" s="6">
         <v>0</v>
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="104" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D104" s="4"/>
       <c r="G104" s="6">
         <v>0</v>
       </c>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="105" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D105" s="4"/>
       <c r="G105" s="6">
         <v>0</v>
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="106" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D106" s="4"/>
       <c r="G106" s="6">
         <v>0</v>
       </c>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="107" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D107" s="4"/>
       <c r="G107" s="6">
         <v>0</v>
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="108" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D108" s="4"/>
       <c r="G108" s="6">
         <v>0</v>
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="109" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D109" s="4"/>
       <c r="G109" s="6">
         <v>0</v>
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="110" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D110" s="4"/>
       <c r="G110" s="6">
         <v>0</v>
       </c>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="111" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D111" s="4"/>
       <c r="G111" s="6">
         <v>0</v>
       </c>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="112" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D112" s="4"/>
       <c r="G112" s="6">
         <v>0</v>
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="113" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D113" s="4"/>
       <c r="G113" s="6">
         <v>0</v>
       </c>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="114" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D114" s="4"/>
       <c r="G114" s="6">
         <v>0</v>
       </c>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="115" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D115" s="4"/>
       <c r="G115" s="6">
         <v>0</v>
       </c>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="116" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D116" s="4"/>
       <c r="G116" s="6">
         <v>0</v>
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="117" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D117" s="4"/>
       <c r="G117" s="6">
         <v>0</v>
       </c>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="118" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D118" s="4"/>
       <c r="G118" s="6">
         <v>0</v>
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="119" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D119" s="4"/>
       <c r="G119" s="6">
         <v>0</v>
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="120" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D120" s="4"/>
       <c r="G120" s="6">
         <v>0</v>
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="121" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D121" s="4"/>
       <c r="G121" s="6">
         <v>0</v>
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="122" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D122" s="4"/>
       <c r="G122" s="6">
         <v>0</v>
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="123" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D123" s="4"/>
       <c r="G123" s="6">
         <v>0</v>
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="124" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D124" s="4"/>
       <c r="G124" s="6">
         <v>0</v>
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="125" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D125" s="4"/>
       <c r="G125" s="6">
         <v>0</v>
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="126" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D126" s="4"/>
       <c r="G126" s="6">
         <v>0</v>
       </c>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="127" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D127" s="4"/>
       <c r="G127" s="6">
         <v>0</v>
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="128" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D128" s="4"/>
       <c r="G128" s="6">
         <v>0</v>
       </c>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="129" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D129" s="4"/>
       <c r="G129" s="6">
         <v>0</v>
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="130" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D130" s="4"/>
       <c r="G130" s="6">
         <v>0</v>
       </c>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="131" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D131" s="4"/>
       <c r="G131" s="6">
         <v>0</v>
       </c>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="132" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D132" s="4"/>
       <c r="G132" s="6">
         <v>0</v>
       </c>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="133" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D133" s="4"/>
       <c r="G133" s="6">
         <v>0</v>
       </c>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="134" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D134" s="4"/>
       <c r="G134" s="6">
         <v>0</v>
       </c>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="135" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D135" s="4"/>
       <c r="G135" s="6">
         <v>0</v>
       </c>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="136" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D136" s="4"/>
       <c r="G136" s="6">
         <v>0</v>
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="137" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D137" s="4"/>
       <c r="G137" s="6">
         <v>0</v>
       </c>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="138" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D138" s="4"/>
       <c r="G138" s="6">
         <v>0</v>
       </c>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="139" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D139" s="4"/>
       <c r="G139" s="6">
         <v>0</v>
       </c>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="140" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D140" s="4"/>
       <c r="G140" s="6">
         <v>0</v>
       </c>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="141" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D141" s="4"/>
       <c r="G141" s="6">
         <v>0</v>
       </c>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="142" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D142" s="4"/>
       <c r="G142" s="6">
         <v>0</v>
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="143" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D143" s="4"/>
       <c r="G143" s="6">
         <v>0</v>
       </c>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="144" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D144" s="4"/>
       <c r="G144" s="6">
         <v>0</v>
       </c>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="145" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D145" s="4"/>
       <c r="G145" s="6">
         <v>0</v>
       </c>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="146" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D146" s="4"/>
       <c r="G146" s="6">
         <v>0</v>
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="147" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D147" s="4"/>
       <c r="G147" s="6">
         <v>0</v>
       </c>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="148" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D148" s="4"/>
       <c r="G148" s="6">
         <v>0</v>
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="149" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D149" s="4"/>
       <c r="G149" s="6">
         <v>0</v>
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="150" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D150" s="4"/>
       <c r="G150" s="6">
         <v>0</v>
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="151" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D151" s="4"/>
       <c r="G151" s="6">
         <v>0</v>
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="152" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D152" s="4"/>
       <c r="G152" s="6">
         <v>0</v>
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="153" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="4"/>
       <c r="G153" s="6">
         <v>0</v>
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="154" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D154" s="4"/>
       <c r="G154" s="6">
         <v>0</v>
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="155" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D155" s="4"/>
       <c r="G155" s="6">
         <v>0</v>
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="156" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D156" s="4"/>
       <c r="G156" s="6">
         <v>0</v>
       </c>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="157" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D157" s="4"/>
       <c r="G157" s="6">
         <v>0</v>
       </c>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="158" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D158" s="4"/>
       <c r="G158" s="6">
         <v>0</v>
       </c>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="159" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D159" s="4"/>
       <c r="G159" s="6">
         <v>0</v>
       </c>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="160" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D160" s="4"/>
       <c r="G160" s="6">
         <v>0</v>
       </c>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="161" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D161" s="4"/>
       <c r="G161" s="6">
         <v>0</v>
       </c>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="162" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D162" s="4"/>
       <c r="G162" s="6">
         <v>0</v>
       </c>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="163" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D163" s="4"/>
       <c r="G163" s="6">
         <v>0</v>
       </c>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="164" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D164" s="4"/>
       <c r="G164" s="6">
         <v>0</v>
       </c>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
+    <row r="165" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D165" s="4"/>
       <c r="G165" s="6">
         <v>0</v>
       </c>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="4:11" ht="15" thickTop="1"/>
+    <row r="166" spans="4:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9CFE83-9FDD-40F3-BA97-0C52BEA283F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3337A4B-579E-486D-A38B-676CFB9986E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -772,13 +772,13 @@
         <v>600</v>
       </c>
       <c r="C3">
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1000</v>
@@ -791,14 +791,14 @@
       </c>
       <c r="I3" s="3">
         <f>C3/D3</f>
-        <v>500</v>
+        <v>60</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3" s="3">
         <f>(B3/60+I3/25+E3/50)*J3</f>
-        <v>31.2</v>
+        <v>12.46</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
@@ -818,13 +818,13 @@
         <v>800</v>
       </c>
       <c r="C4">
-        <v>450</v>
+        <v>80</v>
       </c>
       <c r="D4" s="4">
         <v>1.1000000000000001</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1000</v>
@@ -837,14 +837,14 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I13" si="0">C4/D4</f>
-        <v>409.09090909090907</v>
+        <v>72.72727272727272</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" ref="K4:K13" si="1">(B4/60+I4/25+E4/50)*J4</f>
-        <v>31.096969696969694</v>
+        <v>16.302424242424241</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="3"/>
@@ -864,13 +864,13 @@
         <v>50</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="D5" s="4">
         <v>1.6</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1000</v>
@@ -883,14 +883,14 @@
       </c>
       <c r="I5" s="3">
         <f t="shared" si="0"/>
-        <v>62.5</v>
+        <v>3.125</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>18.166666666666668</v>
+        <v>5.0916666666666668</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
@@ -910,13 +910,13 @@
         <v>220</v>
       </c>
       <c r="C6">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D6" s="4">
         <v>2.5</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1000</v>
@@ -929,14 +929,14 @@
       </c>
       <c r="I6" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="J6">
         <v>4</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>18.026666666666667</v>
+        <v>16.314666666666664</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
@@ -952,13 +952,13 @@
         <v>950</v>
       </c>
       <c r="C7">
-        <v>950</v>
+        <v>95</v>
       </c>
       <c r="D7" s="4">
         <v>0.7</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1000</v>
@@ -971,14 +971,14 @@
       </c>
       <c r="I7" s="3">
         <f t="shared" si="0"/>
-        <v>1357.1428571428573</v>
+        <v>135.71428571428572</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>72.11904761904762</v>
+        <v>21.321904761904761</v>
       </c>
       <c r="L7" s="1"/>
     </row>
@@ -990,13 +990,13 @@
         <v>20</v>
       </c>
       <c r="C8">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="D8" s="4">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1000</v>
@@ -1009,14 +1009,14 @@
       </c>
       <c r="I8" s="3">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>3</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>1.42</v>
       </c>
       <c r="L8" s="1"/>
     </row>
@@ -1028,13 +1028,13 @@
         <v>2000</v>
       </c>
       <c r="C9">
-        <v>4500</v>
+        <v>200</v>
       </c>
       <c r="D9" s="4">
         <v>3.6</v>
       </c>
       <c r="E9">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1000</v>
@@ -1047,14 +1047,14 @@
       </c>
       <c r="I9" s="3">
         <f t="shared" si="0"/>
-        <v>1250</v>
+        <v>55.555555555555557</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>84.63333333333334</v>
+        <v>35.615555555555559</v>
       </c>
       <c r="L9" s="1"/>
     </row>
@@ -1066,13 +1066,13 @@
         <v>180</v>
       </c>
       <c r="C10">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="D10" s="4">
         <v>1.3</v>
       </c>
       <c r="E10">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1000</v>
@@ -1085,14 +1085,14 @@
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>53.846153846153847</v>
+        <v>13.846153846153845</v>
       </c>
       <c r="J10">
         <v>6</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>35.723076923076917</v>
+        <v>21.683076923076921</v>
       </c>
       <c r="L10" s="1"/>
     </row>
@@ -1104,13 +1104,13 @@
         <v>150</v>
       </c>
       <c r="C11">
-        <v>400</v>
+        <v>15</v>
       </c>
       <c r="D11" s="4">
         <v>1.2</v>
       </c>
       <c r="E11">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1000</v>
@@ -1123,14 +1123,14 @@
       </c>
       <c r="I11" s="3">
         <f t="shared" si="0"/>
-        <v>333.33333333333337</v>
+        <v>12.5</v>
       </c>
       <c r="J11">
         <v>2</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>34.06666666666667</v>
+        <v>6.12</v>
       </c>
       <c r="L11" s="1"/>
     </row>
@@ -1142,13 +1142,13 @@
         <v>900</v>
       </c>
       <c r="C12">
-        <v>450</v>
+        <v>90</v>
       </c>
       <c r="D12" s="4">
         <v>0.6</v>
       </c>
       <c r="E12">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1000</v>
@@ -1161,14 +1161,14 @@
       </c>
       <c r="I12" s="3">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>150</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>91.6</v>
+        <v>42.12</v>
       </c>
       <c r="L12" s="1"/>
     </row>
@@ -1177,16 +1177,16 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="D13" s="4">
         <v>0.4</v>
       </c>
       <c r="E13">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1000</v>
@@ -1199,14 +1199,14 @@
       </c>
       <c r="I13" s="3">
         <f t="shared" si="0"/>
-        <v>250</v>
+        <v>37.5</v>
       </c>
       <c r="J13">
         <v>3</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>39.950000000000003</v>
+        <v>12.18</v>
       </c>
       <c r="L13" s="1"/>
     </row>
@@ -1279,13 +1279,13 @@
         <v>100</v>
       </c>
       <c r="C17">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4">
         <v>0.5</v>
       </c>
       <c r="E17">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1000</v>
@@ -1298,14 +1298,14 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17:I38" si="2">C17/D17</f>
-        <v>2000</v>
+        <v>20</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" ref="K17:K27" si="3">(B17/60+I17/25+E17/50)*J17</f>
-        <v>83.066666666666677</v>
+        <f t="shared" ref="K17:K28" si="3">(B17/60+I17/25+E17/50)*J17</f>
+        <v>2.5266666666666668</v>
       </c>
       <c r="L17" s="1"/>
     </row>
@@ -1317,13 +1317,13 @@
         <v>1500</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="D18" s="4">
         <v>2.2000000000000002</v>
       </c>
       <c r="E18">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1000</v>
@@ -1336,14 +1336,14 @@
       </c>
       <c r="I18" s="3">
         <f t="shared" si="2"/>
-        <v>45.454545454545453</v>
+        <v>68.181818181818173</v>
       </c>
       <c r="J18">
         <v>1</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="3"/>
-        <v>27.218181818181815</v>
+        <v>27.787272727272725</v>
       </c>
       <c r="L18" s="1"/>
     </row>
@@ -1355,13 +1355,13 @@
         <v>150</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="D19" s="4">
         <v>0.2</v>
       </c>
       <c r="E19">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1000</v>
@@ -1374,14 +1374,14 @@
       </c>
       <c r="I19" s="3">
         <f t="shared" si="2"/>
-        <v>250</v>
+        <v>75</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="3"/>
-        <v>42.3</v>
+        <v>16.68</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -1393,13 +1393,13 @@
         <v>350</v>
       </c>
       <c r="C20">
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
       </c>
       <c r="E20">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1000</v>
@@ -1412,14 +1412,14 @@
       </c>
       <c r="I20" s="3">
         <f t="shared" si="2"/>
-        <v>300</v>
+        <v>35</v>
       </c>
       <c r="J20">
         <v>2</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="3"/>
-        <v>37.866666666666667</v>
+        <v>14.586666666666664</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -1431,13 +1431,13 @@
         <v>50</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="D21" s="4">
         <v>3</v>
       </c>
       <c r="E21">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1000</v>
@@ -1450,14 +1450,14 @@
       </c>
       <c r="I21" s="3">
         <f t="shared" si="2"/>
-        <v>16.666666666666668</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="J21">
         <v>10</v>
       </c>
       <c r="K21" s="3">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -1469,13 +1469,13 @@
         <v>750</v>
       </c>
       <c r="C22">
-        <v>400</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4">
         <v>1.4</v>
       </c>
       <c r="E22">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1000</v>
@@ -1488,14 +1488,14 @@
       </c>
       <c r="I22" s="3">
         <f t="shared" si="2"/>
-        <v>285.71428571428572</v>
+        <v>53.571428571428577</v>
       </c>
       <c r="J22">
         <v>2</v>
       </c>
       <c r="K22" s="3">
         <f t="shared" si="3"/>
-        <v>49.25714285714286</v>
+        <v>29.405714285714286</v>
       </c>
       <c r="L22" s="1"/>
     </row>
@@ -1507,13 +1507,13 @@
         <v>500</v>
       </c>
       <c r="C23">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="D23" s="4">
         <v>1.3</v>
       </c>
       <c r="E23">
-        <v>40</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1000</v>
@@ -1526,14 +1526,14 @@
       </c>
       <c r="I23" s="3">
         <f t="shared" si="2"/>
-        <v>269.23076923076923</v>
+        <v>38.46153846153846</v>
       </c>
       <c r="J23">
         <v>2</v>
       </c>
       <c r="K23" s="3">
         <f t="shared" si="3"/>
-        <v>39.805128205128206</v>
+        <v>19.863589743589745</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -1545,13 +1545,13 @@
         <v>650</v>
       </c>
       <c r="C24">
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
       </c>
       <c r="E24">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1000</v>
@@ -1560,18 +1560,18 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I24" s="3">
         <f t="shared" si="2"/>
-        <v>500</v>
+        <v>65</v>
       </c>
       <c r="J24">
         <v>1</v>
       </c>
       <c r="K24" s="3">
         <f t="shared" si="3"/>
-        <v>32.033333333333339</v>
+        <v>13.493333333333334</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -1583,13 +1583,13 @@
         <v>400</v>
       </c>
       <c r="C25">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="D25" s="4">
         <v>1.6</v>
       </c>
       <c r="E25">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1000</v>
@@ -1602,14 +1602,14 @@
       </c>
       <c r="I25" s="3">
         <f t="shared" si="2"/>
-        <v>156.25</v>
+        <v>25</v>
       </c>
       <c r="J25">
         <v>1</v>
       </c>
       <c r="K25" s="3">
         <f t="shared" si="3"/>
-        <v>13.516666666666667</v>
+        <v>7.7266666666666666</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -1621,13 +1621,13 @@
         <v>500</v>
       </c>
       <c r="C26">
-        <v>300</v>
+        <v>50</v>
       </c>
       <c r="D26" s="4">
         <v>0.7</v>
       </c>
       <c r="E26">
-        <v>65</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1000</v>
@@ -1640,14 +1640,14 @@
       </c>
       <c r="I26" s="3">
         <f t="shared" si="2"/>
-        <v>428.57142857142861</v>
+        <v>71.428571428571431</v>
       </c>
       <c r="J26">
         <v>2</v>
       </c>
       <c r="K26" s="3">
         <f t="shared" si="3"/>
-        <v>53.552380952380965</v>
+        <v>22.500952380952384</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -1665,7 +1665,7 @@
         <v>10000</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" si="3"/>
-        <v>41.686666666666667</v>
+        <v>41.726666666666667</v>
       </c>
       <c r="L27" s="1"/>
     </row>
@@ -1693,17 +1693,39 @@
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="B28">
+        <v>1000</v>
+      </c>
+      <c r="C28">
+        <v>100</v>
+      </c>
       <c r="D28" s="4">
-        <v>1</v>
+        <v>0.9</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
       </c>
       <c r="G28" s="6">
         <v>0</v>
+      </c>
+      <c r="H28">
+        <v>9</v>
       </c>
       <c r="I28" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="3"/>
+        <v>111.11111111111111</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" s="3">
+        <f t="shared" si="3"/>
+        <v>21.171111111111113</v>
+      </c>
+      <c r="L28" s="1"/>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">
@@ -1760,25 +1782,25 @@
     <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
-        <v>612.0454545454545</v>
+        <v>612.27272727272725</v>
       </c>
       <c r="C33">
         <f>AVERAGE(B33,C3,C4,C6,C5,C8,C7,C9:C13,C17:C27)</f>
-        <v>500.95849802371538</v>
+        <v>74.316205533596843</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
       </c>
       <c r="E33">
         <f>AVERAGE(D33,E17:E26,E3:E13)</f>
-        <v>46.409090909090907</v>
+        <v>2.9090909090909092</v>
       </c>
       <c r="G33" s="6">
         <v>0</v>
       </c>
       <c r="I33" s="8">
         <f>AVERAGE(I17:I32,I17:I27,I3:I13)</f>
-        <v>356.20233275496435</v>
+        <v>41.302616462484878</v>
       </c>
       <c r="K33" s="3"/>
     </row>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3337A4B-579E-486D-A38B-676CFB9986E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -173,8 +167,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,13 +345,13 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="4" xfId="5" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
-    <cellStyle name="Calculation" xfId="4" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="5" builtinId="23"/>
-    <cellStyle name="Good" xfId="3" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="6" builtinId="10"/>
+    <cellStyle name="Вычисление" xfId="4" builtinId="22"/>
+    <cellStyle name="Контрольная ячейка" xfId="5" builtinId="23"/>
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
+    <cellStyle name="Примечание" xfId="6" builtinId="10"/>
+    <cellStyle name="Хороший" xfId="3" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -681,40 +675,40 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1"/>
-    <col min="7" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="18.140625" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="15.75" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="15.875" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="8" max="8" width="13.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
+    <col min="10" max="10" width="14.75" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="13.875" customWidth="1"/>
+    <col min="13" max="13" width="9.125" customWidth="1"/>
+    <col min="14" max="14" width="18.125" customWidth="1"/>
+    <col min="15" max="15" width="11.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -760,11 +754,11 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="M2" s="3"/>
       <c r="P2" s="3"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -797,8 +791,8 @@
         <v>1</v>
       </c>
       <c r="K3" s="3">
-        <f>(B3/60+I3/25+E3/50)*J3</f>
-        <v>12.46</v>
+        <f>B3*I3*J3/10000</f>
+        <v>3.6</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="3"/>
@@ -810,7 +804,7 @@
       </c>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -818,10 +812,10 @@
         <v>800</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="D4" s="4">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -837,14 +831,14 @@
       </c>
       <c r="I4" s="3">
         <f t="shared" ref="I4:I13" si="0">C4/D4</f>
-        <v>72.72727272727272</v>
+        <v>45</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" ref="K4:K13" si="1">(B4/60+I4/25+E4/50)*J4</f>
-        <v>16.302424242424241</v>
+        <f t="shared" ref="K4:K28" si="1">B4*I4*J4/10000</f>
+        <v>3.6</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="3"/>
@@ -856,7 +850,7 @@
       </c>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
@@ -890,7 +884,7 @@
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>5.0916666666666668</v>
+        <v>7.8125E-2</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="3"/>
@@ -902,7 +896,7 @@
       </c>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -936,7 +930,7 @@
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>16.314666666666664</v>
+        <v>0.77440000000000009</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="3"/>
@@ -944,7 +938,7 @@
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -978,11 +972,11 @@
       </c>
       <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>21.321904761904761</v>
+        <v>12.892857142857144</v>
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -1016,11 +1010,11 @@
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>1.42</v>
+        <v>1.2E-2</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1054,11 +1048,11 @@
       </c>
       <c r="K9" s="3">
         <f t="shared" si="1"/>
-        <v>35.615555555555559</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1092,11 +1086,11 @@
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>21.683076923076921</v>
+        <v>1.4953846153846153</v>
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
@@ -1130,11 +1124,11 @@
       </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>6.12</v>
+        <v>0.375</v>
       </c>
       <c r="L11" s="1"/>
     </row>
-    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A12" s="5" t="s">
         <v>19</v>
       </c>
@@ -1168,11 +1162,11 @@
       </c>
       <c r="K12" s="3">
         <f t="shared" si="1"/>
-        <v>42.12</v>
+        <v>27</v>
       </c>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -1206,12 +1200,12 @@
       </c>
       <c r="K13" s="3">
         <f t="shared" si="1"/>
-        <v>12.18</v>
+        <v>1.6875</v>
       </c>
       <c r="L13" s="1"/>
     </row>
-    <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1">
       <c r="A15" s="3" t="s">
         <v>21</v>
       </c>
@@ -1270,16 +1264,16 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15.75" thickTop="1" thickBot="1"/>
+    <row r="17" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>100</v>
+        <v>600</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D17" s="4">
         <v>0.5</v>
@@ -1298,18 +1292,18 @@
       </c>
       <c r="I17" s="3">
         <f t="shared" ref="I17:I38" si="2">C17/D17</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" s="3">
-        <f t="shared" ref="K17:K28" si="3">(B17/60+I17/25+E17/50)*J17</f>
-        <v>2.5266666666666668</v>
+        <f t="shared" si="1"/>
+        <v>3.6</v>
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
@@ -1342,12 +1336,12 @@
         <v>1</v>
       </c>
       <c r="K18" s="3">
-        <f t="shared" si="3"/>
-        <v>27.787272727272725</v>
+        <f t="shared" si="1"/>
+        <v>10.227272727272727</v>
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1380,12 +1374,12 @@
         <v>3</v>
       </c>
       <c r="K19" s="3">
-        <f t="shared" si="3"/>
-        <v>16.68</v>
+        <f t="shared" si="1"/>
+        <v>3.375</v>
       </c>
       <c r="L19" s="1"/>
     </row>
-    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1418,12 +1412,12 @@
         <v>2</v>
       </c>
       <c r="K20" s="3">
-        <f t="shared" si="3"/>
-        <v>14.586666666666664</v>
+        <f t="shared" si="1"/>
+        <v>2.4500000000000002</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
@@ -1456,12 +1450,12 @@
         <v>10</v>
       </c>
       <c r="K21" s="3">
-        <f t="shared" si="3"/>
-        <v>9.6</v>
+        <f t="shared" si="1"/>
+        <v>8.3333333333333343E-2</v>
       </c>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A22" s="5" t="s">
         <v>27</v>
       </c>
@@ -1494,12 +1488,12 @@
         <v>2</v>
       </c>
       <c r="K22" s="3">
-        <f t="shared" si="3"/>
-        <v>29.405714285714286</v>
+        <f t="shared" si="1"/>
+        <v>8.0357142857142865</v>
       </c>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1532,12 +1526,12 @@
         <v>2</v>
       </c>
       <c r="K23" s="3">
-        <f t="shared" si="3"/>
-        <v>19.863589743589745</v>
+        <f t="shared" si="1"/>
+        <v>3.8461538461538463</v>
       </c>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -1570,12 +1564,12 @@
         <v>1</v>
       </c>
       <c r="K24" s="3">
-        <f t="shared" si="3"/>
-        <v>13.493333333333334</v>
+        <f t="shared" si="1"/>
+        <v>4.2249999999999996</v>
       </c>
       <c r="L24" s="1"/>
     </row>
-    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1608,12 +1602,12 @@
         <v>1</v>
       </c>
       <c r="K25" s="3">
-        <f t="shared" si="3"/>
-        <v>7.7266666666666666</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="L25" s="1"/>
     </row>
-    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
@@ -1646,12 +1640,12 @@
         <v>2</v>
       </c>
       <c r="K26" s="3">
-        <f t="shared" si="3"/>
-        <v>22.500952380952384</v>
+        <f t="shared" si="1"/>
+        <v>7.1428571428571432</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1684,12 +1678,12 @@
         <v>1</v>
       </c>
       <c r="K27" s="3">
-        <f t="shared" si="3"/>
-        <v>41.726666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="L27" s="1"/>
     </row>
-    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="A28" s="5" t="s">
         <v>43</v>
       </c>
@@ -1722,12 +1716,12 @@
         <v>1</v>
       </c>
       <c r="K28" s="3">
-        <f t="shared" si="3"/>
-        <v>21.171111111111113</v>
+        <f t="shared" si="1"/>
+        <v>11.111111111111111</v>
       </c>
       <c r="L28" s="1"/>
     </row>
-    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D29" s="4">
         <v>1</v>
       </c>
@@ -1740,7 +1734,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D30" s="4">
         <v>1</v>
       </c>
@@ -1753,7 +1747,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D31" s="4">
         <v>1</v>
       </c>
@@ -1766,7 +1760,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="16.5" thickTop="1" thickBot="1">
       <c r="D32" s="4">
         <v>1</v>
       </c>
@@ -1779,14 +1773,14 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="B33">
         <f>AVERAGE(B18:B27,B17,B3:B13)</f>
-        <v>612.27272727272725</v>
+        <v>635</v>
       </c>
       <c r="C33">
         <f>AVERAGE(B33,C3,C4,C6,C5,C8,C7,C9:C13,C17:C27)</f>
-        <v>74.316205533596843</v>
+        <v>74.652173913043484</v>
       </c>
       <c r="D33" s="4">
         <v>1</v>
@@ -1800,11 +1794,11 @@
       </c>
       <c r="I33" s="8">
         <f>AVERAGE(I17:I32,I17:I27,I3:I13)</f>
-        <v>41.302616462484878</v>
+        <v>42.678214548609283</v>
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="B34">
         <v>10</v>
       </c>
@@ -1826,7 +1820,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D35" s="4">
         <v>1</v>
       </c>
@@ -1839,7 +1833,7 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D36" s="4">
         <v>1</v>
       </c>
@@ -1852,7 +1846,7 @@
       </c>
       <c r="K36" s="3"/>
     </row>
-    <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D37" s="4">
         <v>1</v>
       </c>
@@ -1865,7 +1859,7 @@
       </c>
       <c r="K37" s="3"/>
     </row>
-    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D38" s="4">
         <v>1</v>
       </c>
@@ -1878,896 +1872,896 @@
       </c>
       <c r="K38" s="3"/>
     </row>
-    <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D39" s="4"/>
       <c r="G39" s="6">
         <v>0</v>
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D40" s="4"/>
       <c r="G40" s="6">
         <v>0</v>
       </c>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D41" s="4"/>
       <c r="G41" s="6">
         <v>0</v>
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D42" s="4"/>
       <c r="G42" s="6">
         <v>0</v>
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D43" s="4"/>
       <c r="G43" s="6">
         <v>0</v>
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D44" s="4"/>
       <c r="G44" s="6">
         <v>0</v>
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D45" s="4"/>
       <c r="G45" s="6">
         <v>0</v>
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D46" s="4"/>
       <c r="G46" s="6">
         <v>0</v>
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D47" s="4"/>
       <c r="G47" s="6">
         <v>0</v>
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D48" s="4"/>
       <c r="G48" s="6">
         <v>0</v>
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D49" s="4"/>
       <c r="G49" s="6">
         <v>0</v>
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D50" s="4"/>
       <c r="G50" s="6">
         <v>0</v>
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D51" s="4"/>
       <c r="G51" s="6">
         <v>0</v>
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D52" s="4"/>
       <c r="G52" s="6">
         <v>0</v>
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D53" s="4"/>
       <c r="G53" s="6">
         <v>0</v>
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D54" s="4"/>
       <c r="G54" s="6">
         <v>0</v>
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D55" s="4"/>
       <c r="G55" s="6">
         <v>0</v>
       </c>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D56" s="4"/>
       <c r="G56" s="6">
         <v>0</v>
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D57" s="4"/>
       <c r="G57" s="6">
         <v>0</v>
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D58" s="4"/>
       <c r="G58" s="6">
         <v>0</v>
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D59" s="4"/>
       <c r="G59" s="6">
         <v>0</v>
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D60" s="4"/>
       <c r="G60" s="6">
         <v>0</v>
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D61" s="4"/>
       <c r="G61" s="6">
         <v>0</v>
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D62" s="4"/>
       <c r="G62" s="6">
         <v>0</v>
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D63" s="4"/>
       <c r="G63" s="6">
         <v>0</v>
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D64" s="4"/>
       <c r="G64" s="6">
         <v>0</v>
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D65" s="4"/>
       <c r="G65" s="6">
         <v>0</v>
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D66" s="4"/>
       <c r="G66" s="6">
         <v>0</v>
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D67" s="4"/>
       <c r="G67" s="6">
         <v>0</v>
       </c>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D68" s="4"/>
       <c r="G68" s="6">
         <v>0</v>
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D69" s="4"/>
       <c r="G69" s="6">
         <v>0</v>
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D70" s="4"/>
       <c r="G70" s="6">
         <v>0</v>
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D71" s="4"/>
       <c r="G71" s="6">
         <v>0</v>
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D72" s="4"/>
       <c r="G72" s="6">
         <v>0</v>
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D73" s="4"/>
       <c r="G73" s="6">
         <v>0</v>
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D74" s="4"/>
       <c r="G74" s="6">
         <v>0</v>
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D75" s="4"/>
       <c r="G75" s="6">
         <v>0</v>
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D76" s="4"/>
       <c r="G76" s="6">
         <v>0</v>
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D77" s="4"/>
       <c r="G77" s="6">
         <v>0</v>
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="78" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D78" s="4"/>
       <c r="G78" s="6">
         <v>0</v>
       </c>
       <c r="K78" s="3"/>
     </row>
-    <row r="79" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D79" s="4"/>
       <c r="G79" s="6">
         <v>0</v>
       </c>
       <c r="K79" s="3"/>
     </row>
-    <row r="80" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D80" s="4"/>
       <c r="G80" s="6">
         <v>0</v>
       </c>
       <c r="K80" s="3"/>
     </row>
-    <row r="81" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D81" s="4"/>
       <c r="G81" s="6">
         <v>0</v>
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D82" s="4"/>
       <c r="G82" s="6">
         <v>0</v>
       </c>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D83" s="4"/>
       <c r="G83" s="6">
         <v>0</v>
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D84" s="4"/>
       <c r="G84" s="6">
         <v>0</v>
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D85" s="4"/>
       <c r="G85" s="6">
         <v>0</v>
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D86" s="4"/>
       <c r="G86" s="6">
         <v>0</v>
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D87" s="4"/>
       <c r="G87" s="6">
         <v>0</v>
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D88" s="4"/>
       <c r="G88" s="6">
         <v>0</v>
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D89" s="4"/>
       <c r="G89" s="6">
         <v>0</v>
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D90" s="4"/>
       <c r="G90" s="6">
         <v>0</v>
       </c>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D91" s="4"/>
       <c r="G91" s="6">
         <v>0</v>
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D92" s="4"/>
       <c r="G92" s="6">
         <v>0</v>
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D93" s="4"/>
       <c r="G93" s="6">
         <v>0</v>
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D94" s="4"/>
       <c r="G94" s="6">
         <v>0</v>
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D95" s="4"/>
       <c r="G95" s="6">
         <v>0</v>
       </c>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D96" s="4"/>
       <c r="G96" s="6">
         <v>0</v>
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D97" s="4"/>
       <c r="G97" s="6">
         <v>0</v>
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D98" s="4"/>
       <c r="G98" s="6">
         <v>0</v>
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D99" s="4"/>
       <c r="G99" s="6">
         <v>0</v>
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D100" s="4"/>
       <c r="G100" s="6">
         <v>0</v>
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D101" s="4"/>
       <c r="G101" s="6">
         <v>0</v>
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D102" s="4"/>
       <c r="G102" s="6">
         <v>0</v>
       </c>
       <c r="K102" s="3"/>
     </row>
-    <row r="103" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D103" s="4"/>
       <c r="G103" s="6">
         <v>0</v>
       </c>
       <c r="K103" s="3"/>
     </row>
-    <row r="104" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D104" s="4"/>
       <c r="G104" s="6">
         <v>0</v>
       </c>
       <c r="K104" s="3"/>
     </row>
-    <row r="105" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D105" s="4"/>
       <c r="G105" s="6">
         <v>0</v>
       </c>
       <c r="K105" s="3"/>
     </row>
-    <row r="106" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D106" s="4"/>
       <c r="G106" s="6">
         <v>0</v>
       </c>
       <c r="K106" s="3"/>
     </row>
-    <row r="107" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D107" s="4"/>
       <c r="G107" s="6">
         <v>0</v>
       </c>
       <c r="K107" s="3"/>
     </row>
-    <row r="108" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D108" s="4"/>
       <c r="G108" s="6">
         <v>0</v>
       </c>
       <c r="K108" s="3"/>
     </row>
-    <row r="109" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D109" s="4"/>
       <c r="G109" s="6">
         <v>0</v>
       </c>
       <c r="K109" s="3"/>
     </row>
-    <row r="110" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D110" s="4"/>
       <c r="G110" s="6">
         <v>0</v>
       </c>
       <c r="K110" s="3"/>
     </row>
-    <row r="111" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D111" s="4"/>
       <c r="G111" s="6">
         <v>0</v>
       </c>
       <c r="K111" s="3"/>
     </row>
-    <row r="112" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D112" s="4"/>
       <c r="G112" s="6">
         <v>0</v>
       </c>
       <c r="K112" s="3"/>
     </row>
-    <row r="113" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D113" s="4"/>
       <c r="G113" s="6">
         <v>0</v>
       </c>
       <c r="K113" s="3"/>
     </row>
-    <row r="114" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D114" s="4"/>
       <c r="G114" s="6">
         <v>0</v>
       </c>
       <c r="K114" s="3"/>
     </row>
-    <row r="115" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D115" s="4"/>
       <c r="G115" s="6">
         <v>0</v>
       </c>
       <c r="K115" s="3"/>
     </row>
-    <row r="116" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D116" s="4"/>
       <c r="G116" s="6">
         <v>0</v>
       </c>
       <c r="K116" s="3"/>
     </row>
-    <row r="117" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D117" s="4"/>
       <c r="G117" s="6">
         <v>0</v>
       </c>
       <c r="K117" s="3"/>
     </row>
-    <row r="118" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D118" s="4"/>
       <c r="G118" s="6">
         <v>0</v>
       </c>
       <c r="K118" s="3"/>
     </row>
-    <row r="119" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D119" s="4"/>
       <c r="G119" s="6">
         <v>0</v>
       </c>
       <c r="K119" s="3"/>
     </row>
-    <row r="120" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D120" s="4"/>
       <c r="G120" s="6">
         <v>0</v>
       </c>
       <c r="K120" s="3"/>
     </row>
-    <row r="121" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D121" s="4"/>
       <c r="G121" s="6">
         <v>0</v>
       </c>
       <c r="K121" s="3"/>
     </row>
-    <row r="122" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D122" s="4"/>
       <c r="G122" s="6">
         <v>0</v>
       </c>
       <c r="K122" s="3"/>
     </row>
-    <row r="123" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D123" s="4"/>
       <c r="G123" s="6">
         <v>0</v>
       </c>
       <c r="K123" s="3"/>
     </row>
-    <row r="124" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D124" s="4"/>
       <c r="G124" s="6">
         <v>0</v>
       </c>
       <c r="K124" s="3"/>
     </row>
-    <row r="125" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D125" s="4"/>
       <c r="G125" s="6">
         <v>0</v>
       </c>
       <c r="K125" s="3"/>
     </row>
-    <row r="126" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D126" s="4"/>
       <c r="G126" s="6">
         <v>0</v>
       </c>
       <c r="K126" s="3"/>
     </row>
-    <row r="127" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D127" s="4"/>
       <c r="G127" s="6">
         <v>0</v>
       </c>
       <c r="K127" s="3"/>
     </row>
-    <row r="128" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D128" s="4"/>
       <c r="G128" s="6">
         <v>0</v>
       </c>
       <c r="K128" s="3"/>
     </row>
-    <row r="129" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D129" s="4"/>
       <c r="G129" s="6">
         <v>0</v>
       </c>
       <c r="K129" s="3"/>
     </row>
-    <row r="130" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D130" s="4"/>
       <c r="G130" s="6">
         <v>0</v>
       </c>
       <c r="K130" s="3"/>
     </row>
-    <row r="131" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D131" s="4"/>
       <c r="G131" s="6">
         <v>0</v>
       </c>
       <c r="K131" s="3"/>
     </row>
-    <row r="132" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D132" s="4"/>
       <c r="G132" s="6">
         <v>0</v>
       </c>
       <c r="K132" s="3"/>
     </row>
-    <row r="133" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D133" s="4"/>
       <c r="G133" s="6">
         <v>0</v>
       </c>
       <c r="K133" s="3"/>
     </row>
-    <row r="134" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D134" s="4"/>
       <c r="G134" s="6">
         <v>0</v>
       </c>
       <c r="K134" s="3"/>
     </row>
-    <row r="135" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D135" s="4"/>
       <c r="G135" s="6">
         <v>0</v>
       </c>
       <c r="K135" s="3"/>
     </row>
-    <row r="136" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D136" s="4"/>
       <c r="G136" s="6">
         <v>0</v>
       </c>
       <c r="K136" s="3"/>
     </row>
-    <row r="137" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D137" s="4"/>
       <c r="G137" s="6">
         <v>0</v>
       </c>
       <c r="K137" s="3"/>
     </row>
-    <row r="138" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D138" s="4"/>
       <c r="G138" s="6">
         <v>0</v>
       </c>
       <c r="K138" s="3"/>
     </row>
-    <row r="139" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D139" s="4"/>
       <c r="G139" s="6">
         <v>0</v>
       </c>
       <c r="K139" s="3"/>
     </row>
-    <row r="140" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D140" s="4"/>
       <c r="G140" s="6">
         <v>0</v>
       </c>
       <c r="K140" s="3"/>
     </row>
-    <row r="141" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D141" s="4"/>
       <c r="G141" s="6">
         <v>0</v>
       </c>
       <c r="K141" s="3"/>
     </row>
-    <row r="142" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D142" s="4"/>
       <c r="G142" s="6">
         <v>0</v>
       </c>
       <c r="K142" s="3"/>
     </row>
-    <row r="143" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D143" s="4"/>
       <c r="G143" s="6">
         <v>0</v>
       </c>
       <c r="K143" s="3"/>
     </row>
-    <row r="144" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D144" s="4"/>
       <c r="G144" s="6">
         <v>0</v>
       </c>
       <c r="K144" s="3"/>
     </row>
-    <row r="145" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D145" s="4"/>
       <c r="G145" s="6">
         <v>0</v>
       </c>
       <c r="K145" s="3"/>
     </row>
-    <row r="146" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D146" s="4"/>
       <c r="G146" s="6">
         <v>0</v>
       </c>
       <c r="K146" s="3"/>
     </row>
-    <row r="147" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D147" s="4"/>
       <c r="G147" s="6">
         <v>0</v>
       </c>
       <c r="K147" s="3"/>
     </row>
-    <row r="148" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D148" s="4"/>
       <c r="G148" s="6">
         <v>0</v>
       </c>
       <c r="K148" s="3"/>
     </row>
-    <row r="149" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D149" s="4"/>
       <c r="G149" s="6">
         <v>0</v>
       </c>
       <c r="K149" s="3"/>
     </row>
-    <row r="150" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D150" s="4"/>
       <c r="G150" s="6">
         <v>0</v>
       </c>
       <c r="K150" s="3"/>
     </row>
-    <row r="151" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D151" s="4"/>
       <c r="G151" s="6">
         <v>0</v>
       </c>
       <c r="K151" s="3"/>
     </row>
-    <row r="152" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D152" s="4"/>
       <c r="G152" s="6">
         <v>0</v>
       </c>
       <c r="K152" s="3"/>
     </row>
-    <row r="153" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D153" s="4"/>
       <c r="G153" s="6">
         <v>0</v>
       </c>
       <c r="K153" s="3"/>
     </row>
-    <row r="154" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D154" s="4"/>
       <c r="G154" s="6">
         <v>0</v>
       </c>
       <c r="K154" s="3"/>
     </row>
-    <row r="155" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D155" s="4"/>
       <c r="G155" s="6">
         <v>0</v>
       </c>
       <c r="K155" s="3"/>
     </row>
-    <row r="156" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D156" s="4"/>
       <c r="G156" s="6">
         <v>0</v>
       </c>
       <c r="K156" s="3"/>
     </row>
-    <row r="157" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D157" s="4"/>
       <c r="G157" s="6">
         <v>0</v>
       </c>
       <c r="K157" s="3"/>
     </row>
-    <row r="158" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D158" s="4"/>
       <c r="G158" s="6">
         <v>0</v>
       </c>
       <c r="K158" s="3"/>
     </row>
-    <row r="159" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D159" s="4"/>
       <c r="G159" s="6">
         <v>0</v>
       </c>
       <c r="K159" s="3"/>
     </row>
-    <row r="160" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D160" s="4"/>
       <c r="G160" s="6">
         <v>0</v>
       </c>
       <c r="K160" s="3"/>
     </row>
-    <row r="161" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D161" s="4"/>
       <c r="G161" s="6">
         <v>0</v>
       </c>
       <c r="K161" s="3"/>
     </row>
-    <row r="162" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D162" s="4"/>
       <c r="G162" s="6">
         <v>0</v>
       </c>
       <c r="K162" s="3"/>
     </row>
-    <row r="163" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D163" s="4"/>
       <c r="G163" s="6">
         <v>0</v>
       </c>
       <c r="K163" s="3"/>
     </row>
-    <row r="164" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D164" s="4"/>
       <c r="G164" s="6">
         <v>0</v>
       </c>
       <c r="K164" s="3"/>
     </row>
-    <row r="165" spans="4:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="4:11" ht="16.5" thickTop="1" thickBot="1">
       <c r="D165" s="4"/>
       <c r="G165" s="6">
         <v>0</v>
       </c>
       <c r="K165" s="3"/>
     </row>
-    <row r="166" spans="4:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="4:11" ht="15" thickTop="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3337A4B-579E-486D-A38B-676CFB9986E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98EE1BF-92AC-446C-A50E-1186873FF297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98EE1BF-92AC-446C-A50E-1186873FF297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DD8A4C-9EA7-4846-A3E1-E79BD0DAC8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -692,7 +692,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1665,7 +1665,7 @@
         <v>10000</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F27">
         <v>15</v>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="K27" s="3">
         <f t="shared" si="3"/>
-        <v>41.726666666666667</v>
+        <v>41.666666666666664</v>
       </c>
       <c r="L27" s="1"/>
     </row>

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54DD8A4C-9EA7-4846-A3E1-E79BD0DAC8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3533254-D134-46DA-B6EF-AA9754612B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>Имя персонажа</t>
   </si>
@@ -168,6 +168,21 @@
   </si>
   <si>
     <t>EvilWizard</t>
+  </si>
+  <si>
+    <t>tank</t>
+  </si>
+  <si>
+    <t>damage deler</t>
+  </si>
+  <si>
+    <t>assasin</t>
+  </si>
+  <si>
+    <t>high class</t>
+  </si>
+  <si>
+    <t>artilery</t>
   </si>
 </sst>
 </file>
@@ -692,7 +707,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -800,7 +815,9 @@
         <f>(B3/60+I3/25+E3/50)*J3</f>
         <v>12.46</v>
       </c>
-      <c r="L3" s="1"/>
+      <c r="L3" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M3" s="3"/>
       <c r="N3" s="5" t="s">
         <v>42</v>
@@ -846,7 +863,9 @@
         <f t="shared" ref="K4:K13" si="1">(B4/60+I4/25+E4/50)*J4</f>
         <v>16.302424242424241</v>
       </c>
-      <c r="L4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M4" s="3"/>
       <c r="N4" s="7" t="s">
         <v>41</v>
@@ -892,7 +911,9 @@
         <f t="shared" si="1"/>
         <v>5.0916666666666668</v>
       </c>
-      <c r="L5" s="1"/>
+      <c r="L5" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="M5" s="3"/>
       <c r="N5" s="1" t="s">
         <v>40</v>
@@ -938,7 +959,9 @@
         <f t="shared" si="1"/>
         <v>16.314666666666664</v>
       </c>
-      <c r="L6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
@@ -980,7 +1003,9 @@
         <f t="shared" si="1"/>
         <v>21.321904761904761</v>
       </c>
-      <c r="L7" s="1"/>
+      <c r="L7" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
@@ -1018,7 +1043,9 @@
         <f t="shared" si="1"/>
         <v>1.42</v>
       </c>
-      <c r="L8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1056,7 +1083,9 @@
         <f t="shared" si="1"/>
         <v>35.615555555555559</v>
       </c>
-      <c r="L9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="10" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
@@ -1094,7 +1123,9 @@
         <f t="shared" si="1"/>
         <v>21.683076923076921</v>
       </c>
-      <c r="L10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1132,7 +1163,9 @@
         <f t="shared" si="1"/>
         <v>6.12</v>
       </c>
-      <c r="L11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="12" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
@@ -1170,7 +1203,9 @@
         <f t="shared" si="1"/>
         <v>42.12</v>
       </c>
-      <c r="L12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
@@ -1208,7 +1243,9 @@
         <f t="shared" si="1"/>
         <v>12.18</v>
       </c>
-      <c r="L13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:19" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1307,7 +1344,9 @@
         <f t="shared" ref="K17:K28" si="3">(B17/60+I17/25+E17/50)*J17</f>
         <v>2.5266666666666668</v>
       </c>
-      <c r="L17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
@@ -1345,7 +1384,9 @@
         <f t="shared" si="3"/>
         <v>27.787272727272725</v>
       </c>
-      <c r="L18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
@@ -1383,7 +1424,9 @@
         <f t="shared" si="3"/>
         <v>16.68</v>
       </c>
-      <c r="L19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
@@ -1421,7 +1464,9 @@
         <f t="shared" si="3"/>
         <v>14.586666666666664</v>
       </c>
-      <c r="L20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
@@ -1459,7 +1504,9 @@
         <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
-      <c r="L21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
@@ -1497,7 +1544,9 @@
         <f t="shared" si="3"/>
         <v>29.405714285714286</v>
       </c>
-      <c r="L22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -1535,7 +1584,9 @@
         <f t="shared" si="3"/>
         <v>19.863589743589745</v>
       </c>
-      <c r="L23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
@@ -1573,7 +1624,9 @@
         <f t="shared" si="3"/>
         <v>13.493333333333334</v>
       </c>
-      <c r="L24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1611,7 +1664,9 @@
         <f t="shared" si="3"/>
         <v>7.7266666666666666</v>
       </c>
-      <c r="L25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="26" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
@@ -1649,7 +1704,9 @@
         <f t="shared" si="3"/>
         <v>22.500952380952384</v>
       </c>
-      <c r="L26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="27" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1687,7 +1744,9 @@
         <f t="shared" si="3"/>
         <v>41.666666666666664</v>
       </c>
-      <c r="L27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
@@ -1725,7 +1784,9 @@
         <f t="shared" si="3"/>
         <v>21.171111111111113</v>
       </c>
-      <c r="L28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="29" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D29" s="4">

--- a/Assets/Data/Characteristics.xlsx
+++ b/Assets/Data/Characteristics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\Clash-Mini\Assets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3533254-D134-46DA-B6EF-AA9754612B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A26E3E-AF1D-4367-9552-51F019A12C80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -707,7 +707,7 @@
   <dimension ref="A1:S166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
